--- a/work-in-progress/Peppol Code Lists - Document types v9.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.3.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10511"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E0386FA-0264-E344-86E3-A692AD0581F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7B5C2-F9D0-7F40-ABD0-10BF4803A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2684" uniqueCount="844">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2702" uniqueCount="850">
   <si>
     <t>urn:oasis:names:specification:ubl:schema:xsd:ApplicationResponse-2::ApplicationResponse##urn:www.cenbii.eu:transaction:biicoretrdm057:ver1.0:#urn:www.peppol.eu:bis:peppol1a:ver1.0::2.0</t>
   </si>
@@ -2649,6 +2649,24 @@
   </si>
   <si>
     <t>SG BIS Order Balance v1.0</t>
+  </si>
+  <si>
+    <t>EU PINT Invoice v1.0</t>
+  </si>
+  <si>
+    <t>EU PINT Credit Note v1.0</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:CreditNote-2::CreditNote##urn:peppol:pint:billing-1@eu-1::2.1</t>
+  </si>
+  <si>
+    <t>urn:oasis:names:specification:ubl:schema:xsd:Invoice-2::Invoice##urn:peppol:pint:billing-1@eu-1::2.1</t>
+  </si>
+  <si>
+    <t>9.3</t>
+  </si>
+  <si>
+    <t>TICC-393</t>
   </si>
 </sst>
 </file>
@@ -2842,9 +2860,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -2898,6 +2913,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -3312,11 +3330,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F45987FB-91F4-488D-A9D3-2F3FAED3E07C}">
-  <dimension ref="A1:N305"/>
+  <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A293" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A305" sqref="A305"/>
+      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3324,7 +3342,7 @@
     <col min="1" max="1" width="47.5" style="5" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="24.1640625" style="5" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="97.33203125" style="5" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.83203125" style="26" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="14" style="6" customWidth="1"/>
     <col min="7" max="7" width="15.5" style="13" bestFit="1" customWidth="1"/>
@@ -3332,8 +3350,8 @@
     <col min="9" max="9" width="13.5" style="5" customWidth="1"/>
     <col min="10" max="10" width="15.83203125" style="5" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.5" style="23"/>
-    <col min="12" max="12" width="19.1640625" style="23" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="19.1640625" style="23" customWidth="1"/>
+    <col min="12" max="12" width="19.1640625" style="4" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.1640625" style="4" customWidth="1"/>
     <col min="14" max="14" width="84.33203125" style="5" bestFit="1" customWidth="1"/>
     <col min="15" max="16384" width="11.5" style="5"/>
   </cols>
@@ -3348,7 +3366,7 @@
       <c r="C1" s="3" t="s">
         <v>120</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="25" t="s">
         <v>399</v>
       </c>
       <c r="E1" s="22" t="s">
@@ -3372,974 +3390,974 @@
       <c r="K1" s="22" t="s">
         <v>108</v>
       </c>
-      <c r="L1" s="22" t="s">
+      <c r="L1" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="11" t="s">
         <v>686</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>152</v>
       </c>
     </row>
-    <row r="2" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A2" s="31" t="s">
+    <row r="2" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="30" t="s">
         <v>7</v>
       </c>
-      <c r="B2" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" s="31" t="s">
+      <c r="B2" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C2" s="30" t="s">
         <v>12</v>
       </c>
-      <c r="D2" s="32" t="s">
+      <c r="D2" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E2" s="33" t="s">
+      <c r="E2" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F2" s="34">
+      <c r="F2" s="33">
         <v>2</v>
       </c>
-      <c r="G2" s="35"/>
-      <c r="I2" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J2" s="36" t="b">
+      <c r="G2" s="34"/>
+      <c r="I2" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J2" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K2" s="33">
-        <v>1</v>
-      </c>
-      <c r="L2" s="33" t="s">
+      <c r="K2" s="32">
+        <v>1</v>
+      </c>
+      <c r="L2" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M2" s="33" t="s">
+      <c r="M2" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N2" s="36" t="s">
+      <c r="N2" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="3" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A3" s="31" t="s">
+    <row r="3" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B3" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="31" t="s">
+      <c r="B3" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E3" s="33" t="s">
+      <c r="E3" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F3" s="34">
+      <c r="F3" s="33">
         <v>2</v>
       </c>
-      <c r="G3" s="35"/>
-      <c r="I3" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J3" s="36" t="b">
+      <c r="G3" s="34"/>
+      <c r="I3" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J3" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K3" s="33">
-        <v>1</v>
-      </c>
-      <c r="L3" s="33" t="s">
+      <c r="K3" s="32">
+        <v>1</v>
+      </c>
+      <c r="L3" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M3" s="33" t="s">
+      <c r="M3" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N3" s="36" t="s">
+      <c r="N3" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A4" s="31" t="s">
+    <row r="4" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="30" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="31" t="s">
+      <c r="B4" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C4" s="30" t="s">
         <v>14</v>
       </c>
-      <c r="D4" s="32" t="s">
+      <c r="D4" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="33" t="s">
+      <c r="E4" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F4" s="34">
+      <c r="F4" s="33">
         <v>2</v>
       </c>
-      <c r="G4" s="35"/>
-      <c r="I4" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J4" s="36" t="b">
+      <c r="G4" s="34"/>
+      <c r="I4" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J4" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K4" s="33">
-        <v>1</v>
-      </c>
-      <c r="L4" s="33" t="s">
+      <c r="K4" s="32">
+        <v>1</v>
+      </c>
+      <c r="L4" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M4" s="33" t="s">
+      <c r="M4" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N4" s="36" t="s">
+      <c r="N4" s="35" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A5" s="36" t="s">
+    <row r="5" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="35" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C5" s="31" t="s">
+      <c r="B5" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C5" s="30" t="s">
         <v>21</v>
       </c>
-      <c r="D5" s="32" t="s">
+      <c r="D5" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E5" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F5" s="34">
+      <c r="F5" s="33">
         <v>2</v>
       </c>
-      <c r="G5" s="35"/>
-      <c r="I5" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J5" s="36" t="b">
+      <c r="G5" s="34"/>
+      <c r="I5" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J5" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K5" s="33">
-        <v>1</v>
-      </c>
-      <c r="L5" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M5" s="33" t="s">
+      <c r="K5" s="32">
+        <v>1</v>
+      </c>
+      <c r="L5" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M5" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="N5" s="36" t="s">
+      <c r="N5" s="35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="6" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B6" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C6" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="D6" s="32" t="s">
+      <c r="B6" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C6" s="30" t="s">
+        <v>0</v>
+      </c>
+      <c r="D6" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="33" t="s">
+      <c r="E6" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F6" s="34">
+      <c r="F6" s="33">
         <v>2</v>
       </c>
-      <c r="G6" s="35"/>
-      <c r="I6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J6" s="36" t="b">
+      <c r="G6" s="34"/>
+      <c r="I6" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J6" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K6" s="33">
-        <v>1</v>
-      </c>
-      <c r="L6" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M6" s="33" t="s">
+      <c r="K6" s="32">
+        <v>1</v>
+      </c>
+      <c r="L6" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="N6" s="36" t="s">
+      <c r="N6" s="35" t="s">
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A7" s="36" t="s">
+    <row r="7" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="35" t="s">
         <v>98</v>
       </c>
-      <c r="B7" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C7" s="31" t="s">
-        <v>1</v>
-      </c>
-      <c r="D7" s="32" t="s">
+      <c r="B7" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C7" s="30" t="s">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E7" s="33" t="s">
+      <c r="E7" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F7" s="34">
+      <c r="F7" s="33">
         <v>2</v>
       </c>
-      <c r="G7" s="35"/>
-      <c r="I7" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J7" s="36" t="b">
+      <c r="G7" s="34"/>
+      <c r="I7" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J7" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K7" s="33">
-        <v>1</v>
-      </c>
-      <c r="L7" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M7" s="33" t="s">
+      <c r="K7" s="32">
+        <v>1</v>
+      </c>
+      <c r="L7" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M7" s="30" t="s">
         <v>689</v>
       </c>
-      <c r="N7" s="36" t="s">
+      <c r="N7" s="35" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="8" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A8" s="36" t="s">
+    <row r="8" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B8" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C8" s="31" t="s">
+      <c r="B8" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C8" s="30" t="s">
         <v>31</v>
       </c>
-      <c r="D8" s="37" t="s">
+      <c r="D8" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="33" t="s">
+      <c r="E8" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F8" s="34">
+      <c r="F8" s="33">
         <v>7</v>
       </c>
-      <c r="G8" s="35"/>
-      <c r="I8" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J8" s="36" t="b">
+      <c r="G8" s="34"/>
+      <c r="I8" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J8" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K8" s="33">
-        <v>1</v>
-      </c>
-      <c r="L8" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M8" s="33" t="s">
+      <c r="K8" s="32">
+        <v>1</v>
+      </c>
+      <c r="L8" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M8" s="30" t="s">
         <v>688</v>
       </c>
-      <c r="N8" s="36" t="s">
+      <c r="N8" s="35" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="9" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A9" s="31" t="s">
+    <row r="9" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A9" s="30" t="s">
         <v>28</v>
       </c>
-      <c r="B9" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C9" s="31" t="s">
+      <c r="B9" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C9" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D9" s="32" t="s">
+      <c r="D9" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E9" s="33" t="s">
+      <c r="E9" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F9" s="34">
+      <c r="F9" s="33">
         <v>2</v>
       </c>
-      <c r="G9" s="35"/>
-      <c r="I9" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J9" s="36" t="b">
+      <c r="G9" s="34"/>
+      <c r="I9" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J9" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K9" s="33">
-        <v>1</v>
-      </c>
-      <c r="L9" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M9" s="33" t="s">
+      <c r="K9" s="32">
+        <v>1</v>
+      </c>
+      <c r="L9" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M9" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N9" s="36" t="s">
+      <c r="N9" s="35" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="10" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A10" s="31" t="s">
+    <row r="10" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="30" t="s">
         <v>334</v>
       </c>
-      <c r="B10" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C10" s="31" t="s">
+      <c r="B10" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C10" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D10" s="37" t="s">
+      <c r="D10" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E10" s="33" t="s">
+      <c r="E10" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F10" s="34">
+      <c r="F10" s="33">
         <v>3</v>
       </c>
-      <c r="G10" s="35"/>
-      <c r="H10" s="36" t="s">
+      <c r="G10" s="34"/>
+      <c r="H10" s="35" t="s">
         <v>333</v>
       </c>
-      <c r="I10" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J10" s="36" t="b">
+      <c r="I10" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J10" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K10" s="33">
+      <c r="K10" s="32">
         <v>2</v>
       </c>
-      <c r="L10" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M10" s="33" t="s">
+      <c r="L10" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M10" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N10" s="36" t="s">
+      <c r="N10" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="11" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A11" s="31" t="s">
+    <row r="11" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A11" s="30" t="s">
         <v>29</v>
       </c>
-      <c r="B11" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C11" s="31" t="s">
+      <c r="B11" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="30" t="s">
         <v>55</v>
       </c>
-      <c r="D11" s="37">
+      <c r="D11" s="36">
         <v>3</v>
       </c>
-      <c r="E11" s="33" t="s">
+      <c r="E11" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F11" s="34">
+      <c r="F11" s="33">
         <v>7</v>
       </c>
-      <c r="G11" s="35"/>
-      <c r="I11" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J11" s="36" t="b">
+      <c r="G11" s="34"/>
+      <c r="I11" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J11" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K11" s="33">
+      <c r="K11" s="32">
         <v>2</v>
       </c>
-      <c r="L11" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M11" s="33" t="s">
+      <c r="L11" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M11" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N11" s="36" t="s">
+      <c r="N11" s="35" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A12" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C12" s="31" t="s">
+      <c r="B12" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C12" s="30" t="s">
         <v>2</v>
       </c>
-      <c r="D12" s="32" t="s">
+      <c r="D12" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E12" s="33" t="s">
+      <c r="E12" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F12" s="34">
+      <c r="F12" s="33">
         <v>2</v>
       </c>
-      <c r="G12" s="35"/>
-      <c r="I12" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J12" s="36" t="b">
+      <c r="G12" s="34"/>
+      <c r="I12" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J12" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K12" s="33">
-        <v>1</v>
-      </c>
-      <c r="L12" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M12" s="33" t="s">
+      <c r="K12" s="32">
+        <v>1</v>
+      </c>
+      <c r="L12" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M12" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N12" s="36" t="s">
+      <c r="N12" s="35" t="s">
         <v>144</v>
       </c>
     </row>
-    <row r="13" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A13" s="31" t="s">
+    <row r="13" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A13" s="30" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C13" s="31" t="s">
+      <c r="B13" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" s="30" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="37" t="s">
+      <c r="D13" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E13" s="33" t="s">
+      <c r="E13" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F13" s="34">
+      <c r="F13" s="33">
         <v>7</v>
       </c>
-      <c r="G13" s="35"/>
-      <c r="I13" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J13" s="36" t="b">
+      <c r="G13" s="34"/>
+      <c r="I13" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J13" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K13" s="33">
+      <c r="K13" s="32">
         <v>2</v>
       </c>
-      <c r="L13" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M13" s="33" t="s">
+      <c r="L13" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M13" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N13" s="36" t="s">
+      <c r="N13" s="35" t="s">
         <v>145</v>
       </c>
     </row>
-    <row r="14" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B14" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C14" s="31" t="s">
+      <c r="B14" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C14" s="30" t="s">
         <v>18</v>
       </c>
-      <c r="D14" s="37" t="s">
+      <c r="D14" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="33" t="s">
+      <c r="E14" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F14" s="34">
+      <c r="F14" s="33">
         <v>2</v>
       </c>
-      <c r="G14" s="35"/>
-      <c r="I14" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J14" s="36" t="b">
+      <c r="G14" s="34"/>
+      <c r="I14" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J14" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K14" s="33">
-        <v>1</v>
-      </c>
-      <c r="L14" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M14" s="33" t="s">
+      <c r="K14" s="32">
+        <v>1</v>
+      </c>
+      <c r="L14" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M14" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N14" s="36" t="s">
+      <c r="N14" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="15" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A15" s="31" t="s">
+    <row r="15" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="30" t="s">
         <v>750</v>
       </c>
-      <c r="B15" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C15" s="31" t="s">
+      <c r="B15" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C15" s="30" t="s">
         <v>19</v>
       </c>
-      <c r="D15" s="37" t="s">
+      <c r="D15" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="33" t="s">
+      <c r="E15" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F15" s="34">
+      <c r="F15" s="33">
         <v>2</v>
       </c>
-      <c r="G15" s="35"/>
-      <c r="I15" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J15" s="36" t="b">
+      <c r="G15" s="34"/>
+      <c r="I15" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J15" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K15" s="33">
-        <v>1</v>
-      </c>
-      <c r="L15" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M15" s="33" t="s">
+      <c r="K15" s="32">
+        <v>1</v>
+      </c>
+      <c r="L15" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M15" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N15" s="36" t="s">
+      <c r="N15" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="16" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A16" s="31" t="s">
+    <row r="16" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A16" s="30" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" s="31" t="s">
+      <c r="B16" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="37" t="s">
+      <c r="D16" s="36" t="s">
         <v>17</v>
       </c>
-      <c r="E16" s="33" t="s">
+      <c r="E16" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F16" s="34">
+      <c r="F16" s="33">
         <v>2</v>
       </c>
-      <c r="G16" s="35"/>
-      <c r="I16" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J16" s="36" t="b">
+      <c r="G16" s="34"/>
+      <c r="I16" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J16" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K16" s="33">
-        <v>1</v>
-      </c>
-      <c r="L16" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M16" s="33" t="s">
+      <c r="K16" s="32">
+        <v>1</v>
+      </c>
+      <c r="L16" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M16" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N16" s="36" t="s">
+      <c r="N16" s="35" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="17" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A17" s="31" t="s">
+    <row r="17" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="30" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C17" s="31" t="s">
+      <c r="B17" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C17" s="30" t="s">
         <v>32</v>
       </c>
-      <c r="D17" s="37" t="s">
+      <c r="D17" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E17" s="33" t="s">
+      <c r="E17" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F17" s="34">
+      <c r="F17" s="33">
         <v>7</v>
       </c>
-      <c r="G17" s="35"/>
-      <c r="I17" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J17" s="36" t="b">
+      <c r="G17" s="34"/>
+      <c r="I17" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J17" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K17" s="33">
+      <c r="K17" s="32">
         <v>2</v>
       </c>
-      <c r="L17" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M17" s="33" t="s">
+      <c r="L17" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M17" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N17" s="36" t="s">
+      <c r="N17" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="18" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A18" s="31" t="s">
+    <row r="18" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A18" s="30" t="s">
         <v>751</v>
       </c>
-      <c r="B18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="31" t="s">
+      <c r="B18" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="37" t="s">
+      <c r="D18" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E18" s="33" t="s">
+      <c r="E18" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F18" s="34">
+      <c r="F18" s="33">
         <v>7</v>
       </c>
-      <c r="G18" s="35"/>
-      <c r="I18" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J18" s="36" t="b">
+      <c r="G18" s="34"/>
+      <c r="I18" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J18" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K18" s="33">
+      <c r="K18" s="32">
         <v>2</v>
       </c>
-      <c r="L18" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M18" s="33" t="s">
+      <c r="L18" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M18" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N18" s="36" t="s">
+      <c r="N18" s="35" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="19" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A19" s="36" t="s">
+    <row r="19" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A19" s="35" t="s">
         <v>93</v>
       </c>
-      <c r="B19" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="31" t="s">
+      <c r="B19" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C19" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="D19" s="32" t="s">
+      <c r="D19" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E19" s="33" t="s">
+      <c r="E19" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F19" s="34">
+      <c r="F19" s="33">
         <v>7</v>
       </c>
-      <c r="G19" s="35"/>
-      <c r="I19" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J19" s="36" t="b">
+      <c r="G19" s="34"/>
+      <c r="I19" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J19" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K19" s="33">
-        <v>1</v>
-      </c>
-      <c r="L19" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M19" s="33" t="s">
+      <c r="K19" s="32">
+        <v>1</v>
+      </c>
+      <c r="L19" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M19" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N19" s="36" t="s">
+      <c r="N19" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="20" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A20" s="36" t="s">
+    <row r="20" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B20" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C20" s="31" t="s">
+      <c r="B20" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C20" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="D20" s="32" t="s">
+      <c r="D20" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E20" s="33" t="s">
+      <c r="E20" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F20" s="34">
+      <c r="F20" s="33">
         <v>7</v>
       </c>
-      <c r="G20" s="35"/>
-      <c r="I20" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J20" s="36" t="b">
+      <c r="G20" s="34"/>
+      <c r="I20" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J20" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K20" s="33">
-        <v>1</v>
-      </c>
-      <c r="L20" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M20" s="33" t="s">
+      <c r="K20" s="32">
+        <v>1</v>
+      </c>
+      <c r="L20" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M20" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="N20" s="36" t="s">
+      <c r="N20" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="21" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A21" s="36" t="s">
+    <row r="21" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A21" s="35" t="s">
         <v>94</v>
       </c>
-      <c r="B21" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C21" s="31" t="s">
+      <c r="B21" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C21" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="D21" s="32" t="s">
+      <c r="D21" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E21" s="33" t="s">
+      <c r="E21" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F21" s="34">
+      <c r="F21" s="33">
         <v>7</v>
       </c>
-      <c r="G21" s="35"/>
-      <c r="I21" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J21" s="36" t="b">
+      <c r="G21" s="34"/>
+      <c r="I21" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J21" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K21" s="33">
-        <v>1</v>
-      </c>
-      <c r="L21" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M21" s="33" t="s">
+      <c r="K21" s="32">
+        <v>1</v>
+      </c>
+      <c r="L21" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M21" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="N21" s="36" t="s">
+      <c r="N21" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="22" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A22" s="36" t="s">
+    <row r="22" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A22" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B22" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C22" s="31" t="s">
+      <c r="B22" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="D22" s="32" t="s">
+      <c r="D22" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="33" t="s">
+      <c r="E22" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F22" s="34">
+      <c r="F22" s="33">
         <v>7</v>
       </c>
-      <c r="G22" s="35"/>
-      <c r="I22" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J22" s="36" t="b">
+      <c r="G22" s="34"/>
+      <c r="I22" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J22" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K22" s="33">
-        <v>1</v>
-      </c>
-      <c r="L22" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M22" s="33" t="s">
+      <c r="K22" s="32">
+        <v>1</v>
+      </c>
+      <c r="L22" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M22" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N22" s="36" t="s">
+      <c r="N22" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="23" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A23" s="36" t="s">
+    <row r="23" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="35" t="s">
         <v>752</v>
       </c>
-      <c r="B23" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="31" t="s">
+      <c r="B23" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C23" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="D23" s="32" t="s">
+      <c r="D23" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E23" s="33" t="s">
+      <c r="E23" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F23" s="34">
+      <c r="F23" s="33">
         <v>7</v>
       </c>
-      <c r="G23" s="35"/>
-      <c r="I23" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J23" s="36" t="b">
+      <c r="G23" s="34"/>
+      <c r="I23" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J23" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K23" s="33">
-        <v>1</v>
-      </c>
-      <c r="L23" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M23" s="33" t="s">
+      <c r="K23" s="32">
+        <v>1</v>
+      </c>
+      <c r="L23" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M23" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N23" s="36" t="s">
+      <c r="N23" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="24" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A24" s="36" t="s">
+    <row r="24" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="35" t="s">
         <v>95</v>
       </c>
-      <c r="B24" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="31" t="s">
+      <c r="B24" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="30" t="s">
         <v>6</v>
       </c>
-      <c r="D24" s="32" t="s">
+      <c r="D24" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="33" t="s">
+      <c r="E24" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F24" s="34">
+      <c r="F24" s="33">
         <v>7</v>
       </c>
-      <c r="G24" s="35"/>
-      <c r="I24" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J24" s="36" t="b">
+      <c r="G24" s="34"/>
+      <c r="I24" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J24" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K24" s="33">
-        <v>1</v>
-      </c>
-      <c r="L24" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M24" s="33" t="s">
+      <c r="K24" s="32">
+        <v>1</v>
+      </c>
+      <c r="L24" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M24" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N24" s="36" t="s">
+      <c r="N24" s="35" t="s">
         <v>148</v>
       </c>
     </row>
-    <row r="25" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A25" s="36" t="s">
+    <row r="25" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A25" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="36" t="s">
+      <c r="B25" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C25" s="35" t="s">
         <v>22</v>
       </c>
-      <c r="D25" s="37" t="s">
+      <c r="D25" s="36" t="s">
         <v>23</v>
       </c>
-      <c r="E25" s="33" t="s">
+      <c r="E25" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F25" s="34">
+      <c r="F25" s="33">
         <v>2</v>
       </c>
-      <c r="G25" s="35"/>
-      <c r="I25" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J25" s="36" t="b">
+      <c r="G25" s="34"/>
+      <c r="I25" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J25" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K25" s="33"/>
-      <c r="L25" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M25" s="33" t="s">
+      <c r="K25" s="32"/>
+      <c r="L25" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M25" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N25" s="36" t="s">
+      <c r="N25" s="35" t="s">
         <v>144</v>
       </c>
     </row>
@@ -4353,7 +4371,7 @@
       <c r="C26" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="D26" s="28" t="s">
+      <c r="D26" s="27" t="s">
         <v>23</v>
       </c>
       <c r="E26" s="23" t="s">
@@ -4366,216 +4384,216 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L26" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M26" s="23" t="s">
+      <c r="L26" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M26" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N26" s="5" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="27" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A27" s="36" t="s">
+    <row r="27" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A27" s="35" t="s">
         <v>91</v>
       </c>
-      <c r="B27" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="36" t="s">
+      <c r="B27" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="D27" s="37" t="s">
+      <c r="D27" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E27" s="33" t="s">
+      <c r="E27" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F27" s="34">
+      <c r="F27" s="33">
         <v>7</v>
       </c>
-      <c r="G27" s="35"/>
-      <c r="I27" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J27" s="36" t="b">
+      <c r="G27" s="34"/>
+      <c r="I27" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J27" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K27" s="33">
-        <v>1</v>
-      </c>
-      <c r="L27" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M27" s="33" t="s">
+      <c r="K27" s="32">
+        <v>1</v>
+      </c>
+      <c r="L27" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M27" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N27" s="36" t="s">
+      <c r="N27" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="28" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A28" s="36" t="s">
+    <row r="28" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A28" s="35" t="s">
         <v>331</v>
       </c>
-      <c r="B28" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C28" s="36" t="s">
+      <c r="B28" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C28" s="35" t="s">
         <v>38</v>
       </c>
-      <c r="D28" s="37" t="s">
+      <c r="D28" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E28" s="33" t="s">
+      <c r="E28" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F28" s="34">
+      <c r="F28" s="33">
         <v>3</v>
       </c>
-      <c r="G28" s="35"/>
-      <c r="H28" s="36" t="s">
+      <c r="G28" s="34"/>
+      <c r="H28" s="35" t="s">
         <v>332</v>
       </c>
-      <c r="I28" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J28" s="36" t="b">
+      <c r="I28" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J28" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K28" s="33">
-        <v>1</v>
-      </c>
-      <c r="L28" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M28" s="33" t="s">
+      <c r="K28" s="32">
+        <v>1</v>
+      </c>
+      <c r="L28" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M28" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N28" s="36" t="s">
+      <c r="N28" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="29" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A29" s="36" t="s">
+    <row r="29" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A29" s="35" t="s">
         <v>92</v>
       </c>
-      <c r="B29" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C29" s="36" t="s">
+      <c r="B29" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C29" s="35" t="s">
         <v>47</v>
       </c>
-      <c r="D29" s="37">
+      <c r="D29" s="36">
         <v>3</v>
       </c>
-      <c r="E29" s="33" t="s">
+      <c r="E29" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F29" s="33">
         <v>7</v>
       </c>
-      <c r="G29" s="35"/>
-      <c r="I29" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J29" s="36" t="b">
+      <c r="G29" s="34"/>
+      <c r="I29" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J29" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K29" s="33">
-        <v>1</v>
-      </c>
-      <c r="L29" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M29" s="33" t="s">
+      <c r="K29" s="32">
+        <v>1</v>
+      </c>
+      <c r="L29" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M29" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="N29" s="36" t="s">
+      <c r="N29" s="35" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="30" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="36" t="s">
+    <row r="30" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A30" s="35" t="s">
         <v>39</v>
       </c>
-      <c r="B30" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C30" s="36" t="s">
+      <c r="B30" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C30" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="D30" s="37" t="s">
+      <c r="D30" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E30" s="33" t="s">
+      <c r="E30" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F30" s="34">
+      <c r="F30" s="33">
         <v>7</v>
       </c>
-      <c r="G30" s="35"/>
-      <c r="I30" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J30" s="36" t="b">
+      <c r="G30" s="34"/>
+      <c r="I30" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J30" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K30" s="33">
-        <v>1</v>
-      </c>
-      <c r="L30" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M30" s="33" t="s">
+      <c r="K30" s="32">
+        <v>1</v>
+      </c>
+      <c r="L30" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M30" s="30" t="s">
         <v>694</v>
       </c>
-      <c r="N30" s="36" t="s">
+      <c r="N30" s="35" t="s">
         <v>150</v>
       </c>
     </row>
-    <row r="31" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A31" s="36" t="s">
+    <row r="31" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="B31" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C31" s="36" t="s">
+      <c r="B31" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="D31" s="37" t="s">
+      <c r="D31" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="E31" s="33" t="s">
+      <c r="E31" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F31" s="34">
+      <c r="F31" s="33">
         <v>7</v>
       </c>
-      <c r="G31" s="35"/>
-      <c r="I31" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J31" s="36" t="b">
+      <c r="G31" s="34"/>
+      <c r="I31" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J31" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K31" s="33">
-        <v>1</v>
-      </c>
-      <c r="L31" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M31" s="33" t="s">
+      <c r="K31" s="32">
+        <v>1</v>
+      </c>
+      <c r="L31" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M31" s="30" t="s">
         <v>695</v>
       </c>
-      <c r="N31" s="36" t="s">
+      <c r="N31" s="35" t="s">
         <v>151</v>
       </c>
     </row>
@@ -4589,7 +4607,7 @@
       <c r="C32" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="D32" s="27">
+      <c r="D32" s="26">
         <v>2</v>
       </c>
       <c r="E32" s="23" t="s">
@@ -4608,10 +4626,10 @@
       <c r="K32" s="23">
         <v>3</v>
       </c>
-      <c r="L32" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M32" s="23" t="s">
+      <c r="L32" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M32" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N32" s="5" t="s">
@@ -4628,7 +4646,7 @@
       <c r="C33" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="D33" s="27">
+      <c r="D33" s="26">
         <v>2</v>
       </c>
       <c r="E33" s="23" t="s">
@@ -4647,10 +4665,10 @@
       <c r="K33" s="23">
         <v>3</v>
       </c>
-      <c r="L33" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M33" s="23" t="s">
+      <c r="L33" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M33" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N33" s="5" t="s">
@@ -4667,7 +4685,7 @@
       <c r="C34" s="5" t="s">
         <v>45</v>
       </c>
-      <c r="D34" s="28">
+      <c r="D34" s="27">
         <v>3</v>
       </c>
       <c r="E34" s="23" t="s">
@@ -4680,54 +4698,54 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L34" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M34" s="23" t="s">
+      <c r="L34" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M34" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N34" s="5" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="35" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A35" s="36" t="s">
+    <row r="35" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A35" s="35" t="s">
         <v>328</v>
       </c>
-      <c r="B35" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C35" s="36" t="s">
+      <c r="B35" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="35" t="s">
         <v>46</v>
       </c>
-      <c r="D35" s="37">
+      <c r="D35" s="36">
         <v>3</v>
       </c>
-      <c r="E35" s="33" t="s">
+      <c r="E35" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F35" s="34" t="s">
+      <c r="F35" s="33" t="s">
         <v>280</v>
       </c>
-      <c r="G35" s="35"/>
-      <c r="H35" s="36" t="s">
+      <c r="G35" s="34"/>
+      <c r="H35" s="35" t="s">
         <v>330</v>
       </c>
-      <c r="I35" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J35" s="36" t="b">
+      <c r="I35" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J35" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K35" s="33"/>
-      <c r="L35" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M35" s="33" t="s">
+      <c r="K35" s="32"/>
+      <c r="L35" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M35" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N35" s="36" t="s">
+      <c r="N35" s="35" t="s">
         <v>149</v>
       </c>
     </row>
@@ -4741,7 +4759,7 @@
       <c r="C36" s="5" t="s">
         <v>327</v>
       </c>
-      <c r="D36" s="28" t="s">
+      <c r="D36" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E36" s="23" t="s">
@@ -4757,10 +4775,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L36" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M36" s="23" t="s">
+      <c r="L36" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M36" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N36" s="5" t="s">
@@ -4777,7 +4795,7 @@
       <c r="C37" s="5" t="s">
         <v>48</v>
       </c>
-      <c r="D37" s="27">
+      <c r="D37" s="26">
         <v>3</v>
       </c>
       <c r="E37" s="23" t="s">
@@ -4793,271 +4811,271 @@
       <c r="K37" s="23">
         <v>3</v>
       </c>
-      <c r="L37" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M37" s="23" t="s">
+      <c r="L37" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M37" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N37" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="38" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A38" s="36" t="s">
+    <row r="38" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A38" s="35" t="s">
         <v>464</v>
       </c>
-      <c r="B38" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C38" s="36" t="s">
+      <c r="B38" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C38" s="35" t="s">
         <v>49</v>
       </c>
-      <c r="D38" s="32">
+      <c r="D38" s="31">
         <v>3</v>
       </c>
-      <c r="E38" s="33" t="s">
+      <c r="E38" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F38" s="38" t="s">
+      <c r="F38" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G38" s="35"/>
-      <c r="H38" s="36" t="s">
+      <c r="G38" s="34"/>
+      <c r="H38" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I38" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J38" s="36" t="b">
+      <c r="I38" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J38" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K38" s="33">
-        <v>1</v>
-      </c>
-      <c r="L38" s="33" t="s">
+      <c r="K38" s="32">
+        <v>1</v>
+      </c>
+      <c r="L38" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M38" s="33" t="s">
+      <c r="M38" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N38" s="36" t="s">
+      <c r="N38" s="35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="39" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A39" s="36" t="s">
+    <row r="39" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A39" s="35" t="s">
         <v>463</v>
       </c>
-      <c r="B39" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C39" s="36" t="s">
+      <c r="B39" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C39" s="35" t="s">
         <v>50</v>
       </c>
-      <c r="D39" s="32">
+      <c r="D39" s="31">
         <v>3</v>
       </c>
-      <c r="E39" s="33" t="s">
+      <c r="E39" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F39" s="38" t="s">
+      <c r="F39" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G39" s="35"/>
-      <c r="H39" s="36" t="s">
+      <c r="G39" s="34"/>
+      <c r="H39" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I39" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J39" s="36" t="b">
+      <c r="I39" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J39" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K39" s="33">
-        <v>1</v>
-      </c>
-      <c r="L39" s="33" t="s">
+      <c r="K39" s="32">
+        <v>1</v>
+      </c>
+      <c r="L39" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M39" s="33" t="s">
+      <c r="M39" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N39" s="36" t="s">
+      <c r="N39" s="35" t="s">
         <v>137</v>
       </c>
     </row>
-    <row r="40" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A40" s="36" t="s">
+    <row r="40" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A40" s="35" t="s">
         <v>462</v>
       </c>
-      <c r="B40" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C40" s="36" t="s">
+      <c r="B40" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C40" s="35" t="s">
         <v>51</v>
       </c>
-      <c r="D40" s="32">
+      <c r="D40" s="31">
         <v>3</v>
       </c>
-      <c r="E40" s="33" t="s">
+      <c r="E40" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F40" s="38" t="s">
+      <c r="F40" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G40" s="35"/>
-      <c r="H40" s="36" t="s">
+      <c r="G40" s="34"/>
+      <c r="H40" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I40" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J40" s="36" t="b">
+      <c r="I40" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J40" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K40" s="33">
-        <v>1</v>
-      </c>
-      <c r="L40" s="33" t="s">
+      <c r="K40" s="32">
+        <v>1</v>
+      </c>
+      <c r="L40" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M40" s="33" t="s">
+      <c r="M40" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N40" s="36" t="s">
+      <c r="N40" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="41" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A41" s="36" t="s">
+    <row r="41" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A41" s="35" t="s">
         <v>461</v>
       </c>
-      <c r="B41" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C41" s="36" t="s">
+      <c r="B41" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C41" s="35" t="s">
         <v>52</v>
       </c>
-      <c r="D41" s="32">
+      <c r="D41" s="31">
         <v>3</v>
       </c>
-      <c r="E41" s="33" t="s">
+      <c r="E41" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F41" s="38" t="s">
+      <c r="F41" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G41" s="35"/>
-      <c r="H41" s="36" t="s">
+      <c r="G41" s="34"/>
+      <c r="H41" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I41" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36" t="b">
+      <c r="I41" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J41" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K41" s="33">
-        <v>1</v>
-      </c>
-      <c r="L41" s="33" t="s">
+      <c r="K41" s="32">
+        <v>1</v>
+      </c>
+      <c r="L41" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M41" s="33" t="s">
+      <c r="M41" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N41" s="36" t="s">
+      <c r="N41" s="35" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="42" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A42" s="36" t="s">
+    <row r="42" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A42" s="35" t="s">
         <v>460</v>
       </c>
-      <c r="B42" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C42" s="36" t="s">
+      <c r="B42" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C42" s="35" t="s">
         <v>53</v>
       </c>
-      <c r="D42" s="32">
+      <c r="D42" s="31">
         <v>3</v>
       </c>
-      <c r="E42" s="33" t="s">
+      <c r="E42" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F42" s="38" t="s">
+      <c r="F42" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G42" s="35"/>
-      <c r="H42" s="36" t="s">
+      <c r="G42" s="34"/>
+      <c r="H42" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I42" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J42" s="36" t="b">
+      <c r="I42" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J42" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K42" s="33">
-        <v>1</v>
-      </c>
-      <c r="L42" s="33" t="s">
+      <c r="K42" s="32">
+        <v>1</v>
+      </c>
+      <c r="L42" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M42" s="33" t="s">
+      <c r="M42" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N42" s="36" t="s">
+      <c r="N42" s="35" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A43" s="36" t="s">
+    <row r="43" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A43" s="35" t="s">
         <v>459</v>
       </c>
-      <c r="B43" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C43" s="36" t="s">
+      <c r="B43" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C43" s="35" t="s">
         <v>54</v>
       </c>
-      <c r="D43" s="32">
+      <c r="D43" s="31">
         <v>3</v>
       </c>
-      <c r="E43" s="33" t="s">
+      <c r="E43" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F43" s="38" t="s">
+      <c r="F43" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G43" s="35"/>
-      <c r="H43" s="36" t="s">
+      <c r="G43" s="34"/>
+      <c r="H43" s="35" t="s">
         <v>510</v>
       </c>
-      <c r="I43" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J43" s="36" t="b">
+      <c r="I43" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J43" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K43" s="33">
-        <v>1</v>
-      </c>
-      <c r="L43" s="33" t="s">
+      <c r="K43" s="32">
+        <v>1</v>
+      </c>
+      <c r="L43" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M43" s="33" t="s">
+      <c r="M43" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N43" s="36" t="s">
+      <c r="N43" s="35" t="s">
         <v>135</v>
       </c>
     </row>
@@ -5071,7 +5089,7 @@
       <c r="C44" s="15" t="s">
         <v>57</v>
       </c>
-      <c r="D44" s="29">
+      <c r="D44" s="28">
         <v>3</v>
       </c>
       <c r="E44" s="24" t="s">
@@ -5094,10 +5112,10 @@
         <v>0</v>
       </c>
       <c r="K44" s="24"/>
-      <c r="L44" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M44" s="24" t="s">
+      <c r="L44" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M44" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N44" s="19" t="s">
@@ -5114,7 +5132,7 @@
       <c r="C45" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="D45" s="29">
+      <c r="D45" s="28">
         <v>3</v>
       </c>
       <c r="E45" s="24" t="s">
@@ -5137,10 +5155,10 @@
         <v>0</v>
       </c>
       <c r="K45" s="24"/>
-      <c r="L45" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M45" s="24" t="s">
+      <c r="L45" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M45" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N45" s="19" t="s">
@@ -5157,7 +5175,7 @@
       <c r="C46" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="D46" s="29">
+      <c r="D46" s="28">
         <v>3</v>
       </c>
       <c r="E46" s="24" t="s">
@@ -5180,10 +5198,10 @@
         <v>0</v>
       </c>
       <c r="K46" s="24"/>
-      <c r="L46" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M46" s="24" t="s">
+      <c r="L46" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M46" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N46" s="19" t="s">
@@ -5200,7 +5218,7 @@
       <c r="C47" s="5" t="s">
         <v>59</v>
       </c>
-      <c r="D47" s="27">
+      <c r="D47" s="26">
         <v>3</v>
       </c>
       <c r="E47" s="23" t="s">
@@ -5216,10 +5234,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L47" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M47" s="23" t="s">
+      <c r="L47" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M47" s="4" t="s">
         <v>696</v>
       </c>
       <c r="N47" s="7" t="s">
@@ -5236,7 +5254,7 @@
       <c r="C48" s="5" t="s">
         <v>60</v>
       </c>
-      <c r="D48" s="27">
+      <c r="D48" s="26">
         <v>3</v>
       </c>
       <c r="E48" s="23" t="s">
@@ -5252,10 +5270,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L48" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M48" s="23" t="s">
+      <c r="L48" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M48" s="4" t="s">
         <v>697</v>
       </c>
       <c r="N48" s="7" t="s">
@@ -5272,7 +5290,7 @@
       <c r="C49" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="D49" s="27">
+      <c r="D49" s="26">
         <v>3</v>
       </c>
       <c r="E49" s="23" t="s">
@@ -5288,10 +5306,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L49" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M49" s="23" t="s">
+      <c r="L49" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M49" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N49" s="7" t="s">
@@ -5308,7 +5326,7 @@
       <c r="C50" s="5" t="s">
         <v>66</v>
       </c>
-      <c r="D50" s="27">
+      <c r="D50" s="26">
         <v>3</v>
       </c>
       <c r="E50" s="23" t="s">
@@ -5324,53 +5342,53 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L50" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M50" s="23" t="s">
+      <c r="L50" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M50" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N50" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="51" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A51" s="36" t="s">
+    <row r="51" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A51" s="35" t="s">
         <v>438</v>
       </c>
-      <c r="B51" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C51" s="36" t="s">
+      <c r="B51" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C51" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="D51" s="32">
+      <c r="D51" s="31">
         <v>4</v>
       </c>
-      <c r="E51" s="33" t="s">
+      <c r="E51" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F51" s="34">
+      <c r="F51" s="33">
         <v>7</v>
       </c>
-      <c r="G51" s="35"/>
-      <c r="I51" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J51" s="36" t="b">
+      <c r="G51" s="34"/>
+      <c r="I51" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J51" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K51" s="33">
-        <v>1</v>
-      </c>
-      <c r="L51" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M51" s="33" t="s">
+      <c r="K51" s="32">
+        <v>1</v>
+      </c>
+      <c r="L51" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M51" s="30" t="s">
         <v>698</v>
       </c>
-      <c r="N51" s="36" t="s">
+      <c r="N51" s="35" t="s">
         <v>124</v>
       </c>
     </row>
@@ -5384,7 +5402,7 @@
       <c r="C52" s="5" t="s">
         <v>70</v>
       </c>
-      <c r="D52" s="27">
+      <c r="D52" s="26">
         <v>4</v>
       </c>
       <c r="E52" s="23" t="s">
@@ -5400,10 +5418,10 @@
       <c r="K52" s="23">
         <v>3</v>
       </c>
-      <c r="L52" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M52" s="23" t="s">
+      <c r="L52" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M52" s="4" t="s">
         <v>688</v>
       </c>
       <c r="N52" s="5" t="s">
@@ -5420,7 +5438,7 @@
       <c r="C53" s="5" t="s">
         <v>71</v>
       </c>
-      <c r="D53" s="27">
+      <c r="D53" s="26">
         <v>4</v>
       </c>
       <c r="E53" s="23" t="s">
@@ -5436,10 +5454,10 @@
       <c r="K53" s="23">
         <v>3</v>
       </c>
-      <c r="L53" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M53" s="23" t="s">
+      <c r="L53" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M53" s="4" t="s">
         <v>699</v>
       </c>
       <c r="N53" s="7" t="s">
@@ -5456,7 +5474,7 @@
       <c r="C54" s="5" t="s">
         <v>72</v>
       </c>
-      <c r="D54" s="27">
+      <c r="D54" s="26">
         <v>4</v>
       </c>
       <c r="E54" s="23" t="s">
@@ -5475,10 +5493,10 @@
       <c r="K54" s="23">
         <v>3</v>
       </c>
-      <c r="L54" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M54" s="23" t="s">
+      <c r="L54" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M54" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N54" s="5" t="s">
@@ -5495,7 +5513,7 @@
       <c r="C55" s="5" t="s">
         <v>73</v>
       </c>
-      <c r="D55" s="27">
+      <c r="D55" s="26">
         <v>4</v>
       </c>
       <c r="E55" s="23" t="s">
@@ -5514,10 +5532,10 @@
       <c r="K55" s="23">
         <v>3</v>
       </c>
-      <c r="L55" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M55" s="23" t="s">
+      <c r="L55" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M55" s="4" t="s">
         <v>698</v>
       </c>
       <c r="N55" s="5" t="s">
@@ -5534,7 +5552,7 @@
       <c r="C56" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="D56" s="27">
+      <c r="D56" s="26">
         <v>4</v>
       </c>
       <c r="E56" s="23" t="s">
@@ -5550,10 +5568,10 @@
       <c r="K56" s="23">
         <v>3</v>
       </c>
-      <c r="L56" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M56" s="23" t="s">
+      <c r="L56" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M56" s="4" t="s">
         <v>688</v>
       </c>
       <c r="N56" s="7" t="s">
@@ -5570,7 +5588,7 @@
       <c r="C57" s="5" t="s">
         <v>75</v>
       </c>
-      <c r="D57" s="27">
+      <c r="D57" s="26">
         <v>4</v>
       </c>
       <c r="E57" s="23" t="s">
@@ -5586,10 +5604,10 @@
       <c r="K57" s="23">
         <v>3</v>
       </c>
-      <c r="L57" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M57" s="23" t="s">
+      <c r="L57" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M57" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N57" s="7" t="s">
@@ -5606,7 +5624,7 @@
       <c r="C58" s="5" t="s">
         <v>76</v>
       </c>
-      <c r="D58" s="27">
+      <c r="D58" s="26">
         <v>4</v>
       </c>
       <c r="E58" s="23" t="s">
@@ -5622,10 +5640,10 @@
       <c r="K58" s="23">
         <v>3</v>
       </c>
-      <c r="L58" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M58" s="23" t="s">
+      <c r="L58" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M58" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N58" s="7" t="s">
@@ -5642,7 +5660,7 @@
       <c r="C59" s="5" t="s">
         <v>77</v>
       </c>
-      <c r="D59" s="27">
+      <c r="D59" s="26">
         <v>4</v>
       </c>
       <c r="E59" s="23" t="s">
@@ -5658,10 +5676,10 @@
       <c r="K59" s="23">
         <v>3</v>
       </c>
-      <c r="L59" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M59" s="23" t="s">
+      <c r="L59" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M59" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N59" s="7" t="s">
@@ -5678,7 +5696,7 @@
       <c r="C60" s="5" t="s">
         <v>78</v>
       </c>
-      <c r="D60" s="27">
+      <c r="D60" s="26">
         <v>4</v>
       </c>
       <c r="E60" s="23" t="s">
@@ -5694,10 +5712,10 @@
       <c r="K60" s="23">
         <v>3</v>
       </c>
-      <c r="L60" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M60" s="23" t="s">
+      <c r="L60" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M60" s="4" t="s">
         <v>695</v>
       </c>
       <c r="N60" s="7" t="s">
@@ -5714,7 +5732,7 @@
       <c r="C61" s="5" t="s">
         <v>80</v>
       </c>
-      <c r="D61" s="27">
+      <c r="D61" s="26">
         <v>4</v>
       </c>
       <c r="E61" s="23" t="s">
@@ -5727,10 +5745,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L61" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M61" s="23" t="s">
+      <c r="L61" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M61" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N61" s="7" t="s">
@@ -5747,7 +5765,7 @@
       <c r="C62" s="5" t="s">
         <v>81</v>
       </c>
-      <c r="D62" s="27">
+      <c r="D62" s="26">
         <v>4</v>
       </c>
       <c r="E62" s="23" t="s">
@@ -5760,10 +5778,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L62" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M62" s="23" t="s">
+      <c r="L62" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M62" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N62" s="7" t="s">
@@ -5780,7 +5798,7 @@
       <c r="C63" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="D63" s="27">
+      <c r="D63" s="26">
         <v>4</v>
       </c>
       <c r="E63" s="23" t="s">
@@ -5796,56 +5814,56 @@
       <c r="K63" s="23">
         <v>3</v>
       </c>
-      <c r="L63" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M63" s="23" t="s">
+      <c r="L63" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M63" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N63" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="64" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A64" s="36" t="s">
+    <row r="64" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A64" s="35" t="s">
         <v>329</v>
       </c>
-      <c r="B64" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C64" s="36" t="s">
+      <c r="B64" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C64" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="D64" s="32">
+      <c r="D64" s="31">
         <v>4</v>
       </c>
-      <c r="E64" s="33" t="s">
+      <c r="E64" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F64" s="34">
+      <c r="F64" s="33">
         <v>6</v>
       </c>
-      <c r="G64" s="35"/>
-      <c r="H64" s="36" t="s">
+      <c r="G64" s="34"/>
+      <c r="H64" s="35" t="s">
         <v>400</v>
       </c>
-      <c r="I64" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J64" s="36" t="b">
+      <c r="I64" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J64" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K64" s="33">
+      <c r="K64" s="32">
         <v>3</v>
       </c>
-      <c r="L64" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M64" s="33" t="s">
+      <c r="L64" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M64" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N64" s="39" t="s">
+      <c r="N64" s="38" t="s">
         <v>123</v>
       </c>
     </row>
@@ -5859,7 +5877,7 @@
       <c r="C65" s="5" t="s">
         <v>157</v>
       </c>
-      <c r="D65" s="27">
+      <c r="D65" s="26">
         <v>6</v>
       </c>
       <c r="E65" s="23" t="s">
@@ -5878,10 +5896,10 @@
       <c r="K65" s="23">
         <v>3</v>
       </c>
-      <c r="L65" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M65" s="23" t="s">
+      <c r="L65" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M65" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N65" s="7" t="s">
@@ -5898,7 +5916,7 @@
       <c r="C66" s="15" t="s">
         <v>86</v>
       </c>
-      <c r="D66" s="29">
+      <c r="D66" s="28">
         <v>5</v>
       </c>
       <c r="E66" s="24" t="s">
@@ -5921,10 +5939,10 @@
         <v>0</v>
       </c>
       <c r="K66" s="24"/>
-      <c r="L66" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M66" s="24" t="s">
+      <c r="L66" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M66" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N66" s="19" t="s">
@@ -5941,7 +5959,7 @@
       <c r="C67" s="15" t="s">
         <v>87</v>
       </c>
-      <c r="D67" s="29">
+      <c r="D67" s="28">
         <v>5</v>
       </c>
       <c r="E67" s="24" t="s">
@@ -5964,10 +5982,10 @@
         <v>0</v>
       </c>
       <c r="K67" s="24"/>
-      <c r="L67" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M67" s="24" t="s">
+      <c r="L67" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M67" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N67" s="19" t="s">
@@ -5984,7 +6002,7 @@
       <c r="C68" s="15" t="s">
         <v>88</v>
       </c>
-      <c r="D68" s="29">
+      <c r="D68" s="28">
         <v>5</v>
       </c>
       <c r="E68" s="24" t="s">
@@ -6007,10 +6025,10 @@
         <v>0</v>
       </c>
       <c r="K68" s="24"/>
-      <c r="L68" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M68" s="24" t="s">
+      <c r="L68" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M68" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N68" s="19" t="s">
@@ -6027,7 +6045,7 @@
       <c r="C69" s="5" t="s">
         <v>105</v>
       </c>
-      <c r="D69" s="27">
+      <c r="D69" s="26">
         <v>6</v>
       </c>
       <c r="E69" s="23" t="s">
@@ -6043,10 +6061,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L69" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M69" s="23" t="s">
+      <c r="L69" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M69" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N69" s="7" t="s">
@@ -6063,7 +6081,7 @@
       <c r="C70" s="5" t="s">
         <v>103</v>
       </c>
-      <c r="D70" s="27">
+      <c r="D70" s="26">
         <v>6</v>
       </c>
       <c r="E70" s="23" t="s">
@@ -6079,10 +6097,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L70" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M70" s="23" t="s">
+      <c r="L70" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M70" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N70" s="7" t="s">
@@ -6099,7 +6117,7 @@
       <c r="C71" s="5" t="s">
         <v>104</v>
       </c>
-      <c r="D71" s="27">
+      <c r="D71" s="26">
         <v>6</v>
       </c>
       <c r="E71" s="23" t="s">
@@ -6115,181 +6133,181 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L71" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M71" s="23" t="s">
+      <c r="L71" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M71" s="4" t="s">
         <v>700</v>
       </c>
       <c r="N71" s="7" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="72" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A72" s="35" t="s">
         <v>452</v>
       </c>
-      <c r="B72" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C72" s="36" t="s">
+      <c r="B72" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C72" s="35" t="s">
         <v>113</v>
       </c>
-      <c r="D72" s="32">
+      <c r="D72" s="31">
         <v>6</v>
       </c>
-      <c r="E72" s="33" t="s">
+      <c r="E72" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F72" s="40" t="s">
+      <c r="F72" s="39" t="s">
         <v>830</v>
       </c>
-      <c r="G72" s="41"/>
-      <c r="H72" s="36" t="s">
+      <c r="G72" s="40"/>
+      <c r="H72" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="I72" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J72" s="36" t="b">
+      <c r="I72" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J72" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K72" s="33">
+      <c r="K72" s="32">
         <v>3</v>
       </c>
-      <c r="L72" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M72" s="33" t="s">
+      <c r="L72" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M72" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N72" s="36" t="s">
+      <c r="N72" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="73" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A73" s="36" t="s">
+    <row r="73" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A73" s="35" t="s">
         <v>757</v>
       </c>
-      <c r="B73" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C73" s="36" t="s">
+      <c r="B73" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C73" s="35" t="s">
         <v>115</v>
       </c>
-      <c r="D73" s="32">
+      <c r="D73" s="31">
         <v>6</v>
       </c>
-      <c r="E73" s="33" t="s">
+      <c r="E73" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F73" s="40" t="s">
+      <c r="F73" s="39" t="s">
         <v>830</v>
       </c>
-      <c r="G73" s="41"/>
-      <c r="H73" s="36" t="s">
+      <c r="G73" s="40"/>
+      <c r="H73" s="35" t="s">
         <v>831</v>
       </c>
-      <c r="I73" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J73" s="36" t="b">
+      <c r="I73" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J73" s="35" t="b">
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="K73" s="33">
+      <c r="K73" s="32">
         <v>3</v>
       </c>
-      <c r="L73" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M73" s="33" t="s">
+      <c r="L73" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M73" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N73" s="36" t="s">
+      <c r="N73" s="35" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="74" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A74" s="36" t="s">
+    <row r="74" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A74" s="35" t="s">
         <v>112</v>
       </c>
-      <c r="B74" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C74" s="36" t="s">
+      <c r="B74" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C74" s="35" t="s">
         <v>114</v>
       </c>
-      <c r="D74" s="32">
+      <c r="D74" s="31">
         <v>6</v>
       </c>
-      <c r="E74" s="33" t="s">
+      <c r="E74" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F74" s="40" t="s">
+      <c r="F74" s="39" t="s">
         <v>830</v>
       </c>
-      <c r="G74" s="41"/>
-      <c r="H74" s="36" t="s">
+      <c r="G74" s="40"/>
+      <c r="H74" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="I74" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J74" s="36" t="b">
+      <c r="I74" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J74" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K74" s="33"/>
-      <c r="L74" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M74" s="33" t="s">
+      <c r="K74" s="32"/>
+      <c r="L74" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M74" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N74" s="36" t="s">
+      <c r="N74" s="35" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="75" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A75" s="36" t="s">
+    <row r="75" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A75" s="35" t="s">
         <v>758</v>
       </c>
-      <c r="B75" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C75" s="36" t="s">
+      <c r="B75" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C75" s="35" t="s">
         <v>116</v>
       </c>
-      <c r="D75" s="32">
+      <c r="D75" s="31">
         <v>6</v>
       </c>
-      <c r="E75" s="33" t="s">
+      <c r="E75" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F75" s="40" t="s">
+      <c r="F75" s="39" t="s">
         <v>830</v>
       </c>
-      <c r="G75" s="41"/>
-      <c r="H75" s="36" t="s">
+      <c r="G75" s="40"/>
+      <c r="H75" s="35" t="s">
         <v>832</v>
       </c>
-      <c r="I75" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J75" s="36" t="b">
+      <c r="I75" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J75" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K75" s="33"/>
-      <c r="L75" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M75" s="33" t="s">
+      <c r="K75" s="32"/>
+      <c r="L75" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M75" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N75" s="36" t="s">
+      <c r="N75" s="35" t="s">
         <v>233</v>
       </c>
     </row>
@@ -6303,7 +6321,7 @@
       <c r="C76" s="15" t="s">
         <v>154</v>
       </c>
-      <c r="D76" s="29">
+      <c r="D76" s="28">
         <v>6</v>
       </c>
       <c r="E76" s="24" t="s">
@@ -6326,10 +6344,10 @@
         <v>0</v>
       </c>
       <c r="K76" s="24"/>
-      <c r="L76" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M76" s="24" t="s">
+      <c r="L76" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M76" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N76" s="19" t="s">
@@ -6346,7 +6364,7 @@
       <c r="C77" s="15" t="s">
         <v>155</v>
       </c>
-      <c r="D77" s="29">
+      <c r="D77" s="28">
         <v>6</v>
       </c>
       <c r="E77" s="24" t="s">
@@ -6369,10 +6387,10 @@
         <v>0</v>
       </c>
       <c r="K77" s="24"/>
-      <c r="L77" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M77" s="24" t="s">
+      <c r="L77" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M77" s="16" t="s">
         <v>690</v>
       </c>
       <c r="N77" s="19" t="s">
@@ -6389,7 +6407,7 @@
       <c r="C78" s="15" t="s">
         <v>160</v>
       </c>
-      <c r="D78" s="29">
+      <c r="D78" s="28">
         <v>7</v>
       </c>
       <c r="E78" s="24" t="s">
@@ -6412,10 +6430,10 @@
         <v>0</v>
       </c>
       <c r="K78" s="24"/>
-      <c r="L78" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M78" s="24" t="s">
+      <c r="L78" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M78" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N78" s="19" t="s">
@@ -6432,7 +6450,7 @@
       <c r="C79" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="D79" s="29">
+      <c r="D79" s="28">
         <v>7</v>
       </c>
       <c r="E79" s="24" t="s">
@@ -6455,10 +6473,10 @@
         <v>0</v>
       </c>
       <c r="K79" s="24"/>
-      <c r="L79" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M79" s="24" t="s">
+      <c r="L79" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M79" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N79" s="19" t="s">
@@ -6475,7 +6493,7 @@
       <c r="C80" s="15" t="s">
         <v>182</v>
       </c>
-      <c r="D80" s="29">
+      <c r="D80" s="28">
         <v>7</v>
       </c>
       <c r="E80" s="24" t="s">
@@ -6498,10 +6516,10 @@
         <v>0</v>
       </c>
       <c r="K80" s="24"/>
-      <c r="L80" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M80" s="24" t="s">
+      <c r="L80" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M80" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N80" s="19" t="s">
@@ -6518,7 +6536,7 @@
       <c r="C81" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="D81" s="27">
+      <c r="D81" s="26">
         <v>7</v>
       </c>
       <c r="E81" s="23" t="s">
@@ -6534,10 +6552,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L81" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M81" s="23" t="s">
+      <c r="L81" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M81" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N81" s="7" t="s">
@@ -6554,7 +6572,7 @@
       <c r="C82" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="D82" s="27">
+      <c r="D82" s="26">
         <v>7</v>
       </c>
       <c r="E82" s="23" t="s">
@@ -6570,10 +6588,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L82" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M82" s="23" t="s">
+      <c r="L82" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M82" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N82" s="7" t="s">
@@ -6590,7 +6608,7 @@
       <c r="C83" s="15" t="s">
         <v>183</v>
       </c>
-      <c r="D83" s="29">
+      <c r="D83" s="28">
         <v>7</v>
       </c>
       <c r="E83" s="24" t="s">
@@ -6613,10 +6631,10 @@
         <v>0</v>
       </c>
       <c r="K83" s="24"/>
-      <c r="L83" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M83" s="24" t="s">
+      <c r="L83" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M83" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N83" s="19" t="s">
@@ -6633,7 +6651,7 @@
       <c r="C84" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="D84" s="28" t="s">
+      <c r="D84" s="27" t="s">
         <v>229</v>
       </c>
       <c r="E84" s="23" t="s">
@@ -6649,10 +6667,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L84" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M84" s="23" t="s">
+      <c r="L84" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M84" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N84" s="7" t="s">
@@ -6669,7 +6687,7 @@
       <c r="C85" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="D85" s="29">
+      <c r="D85" s="28">
         <v>7</v>
       </c>
       <c r="E85" s="24" t="s">
@@ -6692,10 +6710,10 @@
         <v>0</v>
       </c>
       <c r="K85" s="24"/>
-      <c r="L85" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M85" s="24" t="s">
+      <c r="L85" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M85" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N85" s="19" t="s">
@@ -6712,7 +6730,7 @@
       <c r="C86" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="D86" s="29">
+      <c r="D86" s="28">
         <v>7</v>
       </c>
       <c r="E86" s="24" t="s">
@@ -6735,10 +6753,10 @@
         <v>0</v>
       </c>
       <c r="K86" s="24"/>
-      <c r="L86" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M86" s="24" t="s">
+      <c r="L86" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M86" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N86" s="19" t="s">
@@ -6755,7 +6773,7 @@
       <c r="C87" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="D87" s="29">
+      <c r="D87" s="28">
         <v>7</v>
       </c>
       <c r="E87" s="24" t="s">
@@ -6778,10 +6796,10 @@
         <v>0</v>
       </c>
       <c r="K87" s="24"/>
-      <c r="L87" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M87" s="24" t="s">
+      <c r="L87" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M87" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N87" s="19" t="s">
@@ -6798,7 +6816,7 @@
       <c r="C88" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="D88" s="27">
+      <c r="D88" s="26">
         <v>7</v>
       </c>
       <c r="E88" s="23" t="s">
@@ -6814,177 +6832,177 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L88" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M88" s="23" t="s">
+      <c r="L88" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M88" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N88" s="7" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="89" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A89" s="36" t="s">
+    <row r="89" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A89" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="B89" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C89" s="36" t="s">
+      <c r="B89" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C89" s="35" t="s">
         <v>178</v>
       </c>
-      <c r="D89" s="32">
+      <c r="D89" s="31">
         <v>7</v>
       </c>
-      <c r="E89" s="33" t="s">
+      <c r="E89" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F89" s="40" t="s">
+      <c r="F89" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G89" s="41"/>
-      <c r="H89" s="36" t="s">
+      <c r="G89" s="40"/>
+      <c r="H89" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I89" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J89" s="36" t="b">
+      <c r="I89" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J89" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K89" s="33"/>
-      <c r="L89" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M89" s="33" t="s">
+      <c r="K89" s="32"/>
+      <c r="L89" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M89" s="30" t="s">
         <v>690</v>
       </c>
-      <c r="N89" s="36" t="s">
+      <c r="N89" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="90" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A90" s="36" t="s">
+    <row r="90" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A90" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="B90" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C90" s="36" t="s">
+      <c r="B90" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C90" s="35" t="s">
         <v>179</v>
       </c>
-      <c r="D90" s="32">
+      <c r="D90" s="31">
         <v>7</v>
       </c>
-      <c r="E90" s="33" t="s">
+      <c r="E90" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F90" s="40" t="s">
+      <c r="F90" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G90" s="41"/>
-      <c r="H90" s="36" t="s">
+      <c r="G90" s="40"/>
+      <c r="H90" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I90" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J90" s="36" t="b">
+      <c r="I90" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J90" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K90" s="33"/>
-      <c r="L90" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M90" s="33" t="s">
+      <c r="K90" s="32"/>
+      <c r="L90" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M90" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="N90" s="36" t="s">
+      <c r="N90" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="91" spans="1:14" s="36" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A91" s="36" t="s">
+    <row r="91" spans="1:14" s="35" customFormat="1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A91" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="B91" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C91" s="36" t="s">
+      <c r="B91" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C91" s="35" t="s">
         <v>180</v>
       </c>
-      <c r="D91" s="32">
+      <c r="D91" s="31">
         <v>7</v>
       </c>
-      <c r="E91" s="33" t="s">
+      <c r="E91" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F91" s="40" t="s">
+      <c r="F91" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G91" s="41"/>
-      <c r="H91" s="36" t="s">
+      <c r="G91" s="40"/>
+      <c r="H91" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I91" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J91" s="36" t="b">
+      <c r="I91" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J91" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K91" s="33"/>
-      <c r="L91" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M91" s="33" t="s">
+      <c r="K91" s="32"/>
+      <c r="L91" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M91" s="30" t="s">
         <v>701</v>
       </c>
-      <c r="N91" s="36" t="s">
+      <c r="N91" s="35" t="s">
         <v>177</v>
       </c>
     </row>
-    <row r="92" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A92" s="36" t="s">
+    <row r="92" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A92" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="B92" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C92" s="36" t="s">
+      <c r="B92" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C92" s="35" t="s">
         <v>181</v>
       </c>
-      <c r="D92" s="32">
+      <c r="D92" s="31">
         <v>7</v>
       </c>
-      <c r="E92" s="33" t="s">
+      <c r="E92" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F92" s="40" t="s">
+      <c r="F92" s="39" t="s">
         <v>214</v>
       </c>
-      <c r="G92" s="41"/>
-      <c r="H92" s="36" t="s">
+      <c r="G92" s="40"/>
+      <c r="H92" s="35" t="s">
         <v>198</v>
       </c>
-      <c r="I92" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J92" s="36" t="b">
+      <c r="I92" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J92" s="35" t="b">
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="K92" s="33"/>
-      <c r="L92" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M92" s="33" t="s">
+      <c r="K92" s="32"/>
+      <c r="L92" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M92" s="30" t="s">
         <v>693</v>
       </c>
-      <c r="N92" s="36" t="s">
+      <c r="N92" s="35" t="s">
         <v>177</v>
       </c>
     </row>
@@ -6998,7 +7016,7 @@
       <c r="C93" s="5" t="s">
         <v>186</v>
       </c>
-      <c r="D93" s="27">
+      <c r="D93" s="26">
         <v>7</v>
       </c>
       <c r="E93" s="23" t="s">
@@ -7014,10 +7032,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L93" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M93" s="23" t="s">
+      <c r="L93" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M93" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N93" s="5" t="s">
@@ -7034,7 +7052,7 @@
       <c r="C94" s="5" t="s">
         <v>187</v>
       </c>
-      <c r="D94" s="27">
+      <c r="D94" s="26">
         <v>7</v>
       </c>
       <c r="E94" s="23" t="s">
@@ -7050,10 +7068,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L94" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M94" s="23" t="s">
+      <c r="L94" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M94" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N94" s="5" t="s">
@@ -7070,7 +7088,7 @@
       <c r="C95" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="D95" s="27">
+      <c r="D95" s="26">
         <v>7</v>
       </c>
       <c r="E95" s="23" t="s">
@@ -7086,10 +7104,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L95" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M95" s="23" t="s">
+      <c r="L95" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M95" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N95" s="5" t="s">
@@ -7106,7 +7124,7 @@
       <c r="C96" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="D96" s="28" t="s">
+      <c r="D96" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E96" s="23" t="s">
@@ -7122,10 +7140,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L96" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M96" s="23" t="s">
+      <c r="L96" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M96" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N96" s="7" t="s">
@@ -7142,7 +7160,7 @@
       <c r="C97" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="D97" s="28" t="s">
+      <c r="D97" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E97" s="23" t="s">
@@ -7158,10 +7176,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L97" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M97" s="23" t="s">
+      <c r="L97" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M97" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N97" s="7" t="s">
@@ -7178,7 +7196,7 @@
       <c r="C98" s="15" t="s">
         <v>195</v>
       </c>
-      <c r="D98" s="30" t="s">
+      <c r="D98" s="29" t="s">
         <v>193</v>
       </c>
       <c r="E98" s="24" t="s">
@@ -7201,10 +7219,10 @@
         <v>0</v>
       </c>
       <c r="K98" s="24"/>
-      <c r="L98" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M98" s="24" t="s">
+      <c r="L98" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M98" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N98" s="19" t="s">
@@ -7221,7 +7239,7 @@
       <c r="C99" s="5" t="s">
         <v>232</v>
       </c>
-      <c r="D99" s="28" t="s">
+      <c r="D99" s="27" t="s">
         <v>229</v>
       </c>
       <c r="E99" s="23" t="s">
@@ -7237,10 +7255,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L99" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M99" s="23" t="s">
+      <c r="L99" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M99" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N99" s="7" t="s">
@@ -7257,7 +7275,7 @@
       <c r="C100" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="D100" s="28" t="s">
+      <c r="D100" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E100" s="23" t="s">
@@ -7273,10 +7291,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L100" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M100" s="23" t="s">
+      <c r="L100" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M100" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N100" s="5" t="s">
@@ -7293,7 +7311,7 @@
       <c r="C101" s="5" t="s">
         <v>206</v>
       </c>
-      <c r="D101" s="28" t="s">
+      <c r="D101" s="27" t="s">
         <v>193</v>
       </c>
       <c r="E101" s="23" t="s">
@@ -7309,10 +7327,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L101" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M101" s="23" t="s">
+      <c r="L101" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M101" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N101" s="7" t="s">
@@ -7329,7 +7347,7 @@
       <c r="C102" s="8" t="s">
         <v>210</v>
       </c>
-      <c r="D102" s="28" t="s">
+      <c r="D102" s="27" t="s">
         <v>213</v>
       </c>
       <c r="E102" s="23" t="s">
@@ -7345,10 +7363,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L102" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M102" s="23" t="s">
+      <c r="L102" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M102" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N102" s="10" t="s">
@@ -7365,7 +7383,7 @@
       <c r="C103" s="15" t="s">
         <v>215</v>
       </c>
-      <c r="D103" s="30" t="s">
+      <c r="D103" s="29" t="s">
         <v>214</v>
       </c>
       <c r="E103" s="24" t="s">
@@ -7388,8 +7406,8 @@
         <v>0</v>
       </c>
       <c r="K103" s="24"/>
-      <c r="L103" s="24"/>
-      <c r="M103" s="24" t="s">
+      <c r="L103" s="16"/>
+      <c r="M103" s="16" t="s">
         <v>702</v>
       </c>
       <c r="N103" s="19" t="s">
@@ -7406,7 +7424,7 @@
       <c r="C104" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="D104" s="28" t="s">
+      <c r="D104" s="27" t="s">
         <v>214</v>
       </c>
       <c r="E104" s="23" t="s">
@@ -7422,10 +7440,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L104" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M104" s="23" t="s">
+      <c r="L104" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M104" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N104" s="5" t="s">
@@ -7442,7 +7460,7 @@
       <c r="C105" s="5" t="s">
         <v>223</v>
       </c>
-      <c r="D105" s="28" t="s">
+      <c r="D105" s="27" t="s">
         <v>214</v>
       </c>
       <c r="E105" s="23" t="s">
@@ -7458,10 +7476,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L105" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M105" s="23" t="s">
+      <c r="L105" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M105" s="4" t="s">
         <v>701</v>
       </c>
       <c r="N105" s="5" t="s">
@@ -7478,7 +7496,7 @@
       <c r="C106" s="5" t="s">
         <v>224</v>
       </c>
-      <c r="D106" s="28" t="s">
+      <c r="D106" s="27" t="s">
         <v>214</v>
       </c>
       <c r="E106" s="23" t="s">
@@ -7494,10 +7512,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L106" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M106" s="23" t="s">
+      <c r="L106" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M106" s="4" t="s">
         <v>701</v>
       </c>
       <c r="N106" s="5" t="s">
@@ -7514,7 +7532,7 @@
       <c r="C107" s="5" t="s">
         <v>225</v>
       </c>
-      <c r="D107" s="28" t="s">
+      <c r="D107" s="27" t="s">
         <v>214</v>
       </c>
       <c r="E107" s="23" t="s">
@@ -7530,10 +7548,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L107" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M107" s="23" t="s">
+      <c r="L107" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M107" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N107" s="5" t="s">
@@ -7550,7 +7568,7 @@
       <c r="C108" s="1" t="s">
         <v>258</v>
       </c>
-      <c r="D108" s="28" t="s">
+      <c r="D108" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E108" s="23" t="s">
@@ -7566,10 +7584,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L108" s="25" t="s">
+      <c r="L108" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M108" s="25" t="s">
+      <c r="M108" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N108" s="5" t="s">
@@ -7586,7 +7604,7 @@
       <c r="C109" s="1" t="s">
         <v>259</v>
       </c>
-      <c r="D109" s="28" t="s">
+      <c r="D109" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E109" s="23" t="s">
@@ -7602,10 +7620,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L109" s="25" t="s">
+      <c r="L109" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M109" s="25" t="s">
+      <c r="M109" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N109" s="5" t="s">
@@ -7622,7 +7640,7 @@
       <c r="C110" s="1" t="s">
         <v>260</v>
       </c>
-      <c r="D110" s="28" t="s">
+      <c r="D110" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E110" s="23" t="s">
@@ -7638,10 +7656,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L110" s="25" t="s">
+      <c r="L110" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M110" s="25" t="s">
+      <c r="M110" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N110" s="5" t="s">
@@ -7658,7 +7676,7 @@
       <c r="C111" s="1" t="s">
         <v>261</v>
       </c>
-      <c r="D111" s="28" t="s">
+      <c r="D111" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E111" s="23" t="s">
@@ -7674,10 +7692,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L111" s="25" t="s">
+      <c r="L111" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M111" s="25" t="s">
+      <c r="M111" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N111" s="5" t="s">
@@ -7694,7 +7712,7 @@
       <c r="C112" s="1" t="s">
         <v>262</v>
       </c>
-      <c r="D112" s="28" t="s">
+      <c r="D112" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E112" s="23" t="s">
@@ -7710,10 +7728,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L112" s="25" t="s">
+      <c r="L112" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M112" s="25" t="s">
+      <c r="M112" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N112" s="5" t="s">
@@ -7730,7 +7748,7 @@
       <c r="C113" s="1" t="s">
         <v>263</v>
       </c>
-      <c r="D113" s="28" t="s">
+      <c r="D113" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E113" s="23" t="s">
@@ -7746,10 +7764,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L113" s="25" t="s">
+      <c r="L113" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M113" s="25" t="s">
+      <c r="M113" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N113" s="5" t="s">
@@ -7766,7 +7784,7 @@
       <c r="C114" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="D114" s="28" t="s">
+      <c r="D114" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E114" s="23" t="s">
@@ -7782,10 +7800,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L114" s="25" t="s">
+      <c r="L114" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M114" s="25" t="s">
+      <c r="M114" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N114" s="5" t="s">
@@ -7802,7 +7820,7 @@
       <c r="C115" s="1" t="s">
         <v>265</v>
       </c>
-      <c r="D115" s="28" t="s">
+      <c r="D115" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E115" s="23" t="s">
@@ -7818,10 +7836,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L115" s="25" t="s">
+      <c r="L115" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M115" s="25" t="s">
+      <c r="M115" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N115" s="5" t="s">
@@ -7838,7 +7856,7 @@
       <c r="C116" s="1" t="s">
         <v>266</v>
       </c>
-      <c r="D116" s="28" t="s">
+      <c r="D116" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E116" s="23" t="s">
@@ -7854,10 +7872,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L116" s="25" t="s">
+      <c r="L116" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M116" s="25" t="s">
+      <c r="M116" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N116" s="5" t="s">
@@ -7874,7 +7892,7 @@
       <c r="C117" s="1" t="s">
         <v>267</v>
       </c>
-      <c r="D117" s="28" t="s">
+      <c r="D117" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E117" s="23" t="s">
@@ -7890,10 +7908,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L117" s="25" t="s">
+      <c r="L117" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M117" s="25" t="s">
+      <c r="M117" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N117" s="5" t="s">
@@ -7910,7 +7928,7 @@
       <c r="C118" s="1" t="s">
         <v>268</v>
       </c>
-      <c r="D118" s="28" t="s">
+      <c r="D118" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E118" s="23" t="s">
@@ -7926,10 +7944,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L118" s="25" t="s">
+      <c r="L118" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M118" s="25" t="s">
+      <c r="M118" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N118" s="5" t="s">
@@ -7946,7 +7964,7 @@
       <c r="C119" s="1" t="s">
         <v>269</v>
       </c>
-      <c r="D119" s="28" t="s">
+      <c r="D119" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E119" s="23" t="s">
@@ -7962,10 +7980,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L119" s="25" t="s">
+      <c r="L119" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M119" s="25" t="s">
+      <c r="M119" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N119" s="5" t="s">
@@ -7982,7 +8000,7 @@
       <c r="C120" s="1" t="s">
         <v>270</v>
       </c>
-      <c r="D120" s="28" t="s">
+      <c r="D120" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E120" s="23" t="s">
@@ -7998,10 +8016,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L120" s="25" t="s">
+      <c r="L120" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M120" s="25" t="s">
+      <c r="M120" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N120" s="5" t="s">
@@ -8018,7 +8036,7 @@
       <c r="C121" s="1" t="s">
         <v>271</v>
       </c>
-      <c r="D121" s="28" t="s">
+      <c r="D121" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E121" s="23" t="s">
@@ -8034,10 +8052,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L121" s="25" t="s">
+      <c r="L121" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M121" s="25" t="s">
+      <c r="M121" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N121" s="5" t="s">
@@ -8054,7 +8072,7 @@
       <c r="C122" s="1" t="s">
         <v>272</v>
       </c>
-      <c r="D122" s="28" t="s">
+      <c r="D122" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E122" s="23" t="s">
@@ -8070,10 +8088,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L122" s="25" t="s">
+      <c r="L122" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M122" s="25" t="s">
+      <c r="M122" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N122" s="5" t="s">
@@ -8090,7 +8108,7 @@
       <c r="C123" s="1" t="s">
         <v>273</v>
       </c>
-      <c r="D123" s="28" t="s">
+      <c r="D123" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E123" s="23" t="s">
@@ -8106,10 +8124,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L123" s="25" t="s">
+      <c r="L123" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M123" s="25" t="s">
+      <c r="M123" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N123" s="5" t="s">
@@ -8126,7 +8144,7 @@
       <c r="C124" s="1" t="s">
         <v>274</v>
       </c>
-      <c r="D124" s="28" t="s">
+      <c r="D124" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E124" s="23" t="s">
@@ -8142,10 +8160,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L124" s="25" t="s">
+      <c r="L124" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M124" s="25" t="s">
+      <c r="M124" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N124" s="5" t="s">
@@ -8162,7 +8180,7 @@
       <c r="C125" s="1" t="s">
         <v>275</v>
       </c>
-      <c r="D125" s="28" t="s">
+      <c r="D125" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E125" s="23" t="s">
@@ -8178,10 +8196,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L125" s="25" t="s">
+      <c r="L125" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M125" s="25" t="s">
+      <c r="M125" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N125" s="5" t="s">
@@ -8198,7 +8216,7 @@
       <c r="C126" s="1" t="s">
         <v>276</v>
       </c>
-      <c r="D126" s="28" t="s">
+      <c r="D126" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E126" s="23" t="s">
@@ -8214,10 +8232,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L126" s="25" t="s">
+      <c r="L126" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M126" s="25" t="s">
+      <c r="M126" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N126" s="5" t="s">
@@ -8234,7 +8252,7 @@
       <c r="C127" s="1" t="s">
         <v>277</v>
       </c>
-      <c r="D127" s="28" t="s">
+      <c r="D127" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E127" s="23" t="s">
@@ -8250,10 +8268,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L127" s="25" t="s">
+      <c r="L127" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M127" s="25" t="s">
+      <c r="M127" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N127" s="5" t="s">
@@ -8270,7 +8288,7 @@
       <c r="C128" s="1" t="s">
         <v>278</v>
       </c>
-      <c r="D128" s="28" t="s">
+      <c r="D128" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E128" s="23" t="s">
@@ -8286,10 +8304,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L128" s="25" t="s">
+      <c r="L128" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M128" s="25" t="s">
+      <c r="M128" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N128" s="5" t="s">
@@ -8306,7 +8324,7 @@
       <c r="C129" s="1" t="s">
         <v>279</v>
       </c>
-      <c r="D129" s="28" t="s">
+      <c r="D129" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E129" s="23" t="s">
@@ -8322,10 +8340,10 @@
         <f>FALSE</f>
         <v>0</v>
       </c>
-      <c r="L129" s="25" t="s">
+      <c r="L129" s="45" t="s">
         <v>347</v>
       </c>
-      <c r="M129" s="25" t="s">
+      <c r="M129" s="45" t="s">
         <v>703</v>
       </c>
       <c r="N129" s="5" t="s">
@@ -8342,7 +8360,7 @@
       <c r="C130" s="5" t="s">
         <v>500</v>
       </c>
-      <c r="D130" s="28" t="s">
+      <c r="D130" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E130" s="23" t="s">
@@ -8360,10 +8378,10 @@
       <c r="K130" s="23">
         <v>1</v>
       </c>
-      <c r="L130" s="23" t="s">
+      <c r="L130" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M130" s="23" t="s">
+      <c r="M130" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N130" s="5" t="s">
@@ -8380,7 +8398,7 @@
       <c r="C131" s="5" t="s">
         <v>285</v>
       </c>
-      <c r="D131" s="28" t="s">
+      <c r="D131" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E131" s="23" t="s">
@@ -8398,10 +8416,10 @@
       <c r="K131" s="23">
         <v>1</v>
       </c>
-      <c r="L131" s="23" t="s">
+      <c r="L131" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M131" s="23" t="s">
+      <c r="M131" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N131" s="5" t="s">
@@ -8418,7 +8436,7 @@
       <c r="C132" s="5" t="s">
         <v>501</v>
       </c>
-      <c r="D132" s="28" t="s">
+      <c r="D132" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E132" s="23" t="s">
@@ -8436,10 +8454,10 @@
       <c r="K132" s="23">
         <v>1</v>
       </c>
-      <c r="L132" s="23" t="s">
+      <c r="L132" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M132" s="23" t="s">
+      <c r="M132" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N132" s="5" t="s">
@@ -8456,7 +8474,7 @@
       <c r="C133" s="5" t="s">
         <v>286</v>
       </c>
-      <c r="D133" s="28" t="s">
+      <c r="D133" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E133" s="23" t="s">
@@ -8474,10 +8492,10 @@
       <c r="K133" s="23">
         <v>1</v>
       </c>
-      <c r="L133" s="23" t="s">
+      <c r="L133" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M133" s="23" t="s">
+      <c r="M133" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N133" s="5" t="s">
@@ -8494,7 +8512,7 @@
       <c r="C134" s="5" t="s">
         <v>304</v>
       </c>
-      <c r="D134" s="28" t="s">
+      <c r="D134" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E134" s="23" t="s">
@@ -8509,10 +8527,10 @@
       <c r="J134" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L134" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M134" s="23" t="s">
+      <c r="L134" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M134" s="4" t="s">
         <v>688</v>
       </c>
       <c r="N134" s="5" t="s">
@@ -8529,7 +8547,7 @@
       <c r="C135" s="5" t="s">
         <v>305</v>
       </c>
-      <c r="D135" s="28" t="s">
+      <c r="D135" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E135" s="23" t="s">
@@ -8544,10 +8562,10 @@
       <c r="J135" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L135" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M135" s="23" t="s">
+      <c r="L135" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M135" s="4" t="s">
         <v>699</v>
       </c>
       <c r="N135" s="5" t="s">
@@ -8564,7 +8582,7 @@
       <c r="C136" s="5" t="s">
         <v>306</v>
       </c>
-      <c r="D136" s="28" t="s">
+      <c r="D136" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E136" s="23" t="s">
@@ -8579,10 +8597,10 @@
       <c r="J136" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L136" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M136" s="23" t="s">
+      <c r="L136" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M136" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N136" s="5" t="s">
@@ -8599,7 +8617,7 @@
       <c r="C137" s="5" t="s">
         <v>307</v>
       </c>
-      <c r="D137" s="28" t="s">
+      <c r="D137" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E137" s="23" t="s">
@@ -8614,10 +8632,10 @@
       <c r="J137" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L137" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M137" s="23" t="s">
+      <c r="L137" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M137" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N137" s="5" t="s">
@@ -8634,7 +8652,7 @@
       <c r="C138" s="5" t="s">
         <v>308</v>
       </c>
-      <c r="D138" s="28" t="s">
+      <c r="D138" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E138" s="23" t="s">
@@ -8649,10 +8667,10 @@
       <c r="J138" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L138" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M138" s="23" t="s">
+      <c r="L138" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M138" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N138" s="5" t="s">
@@ -8669,7 +8687,7 @@
       <c r="C139" s="5" t="s">
         <v>309</v>
       </c>
-      <c r="D139" s="28" t="s">
+      <c r="D139" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E139" s="23" t="s">
@@ -8684,10 +8702,10 @@
       <c r="J139" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L139" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M139" s="23" t="s">
+      <c r="L139" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M139" s="4" t="s">
         <v>697</v>
       </c>
       <c r="N139" s="5" t="s">
@@ -8704,7 +8722,7 @@
       <c r="C140" s="5" t="s">
         <v>310</v>
       </c>
-      <c r="D140" s="28" t="s">
+      <c r="D140" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E140" s="23" t="s">
@@ -8719,10 +8737,10 @@
       <c r="J140" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L140" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M140" s="23" t="s">
+      <c r="L140" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M140" s="4" t="s">
         <v>688</v>
       </c>
       <c r="N140" s="5" t="s">
@@ -8739,7 +8757,7 @@
       <c r="C141" s="5" t="s">
         <v>311</v>
       </c>
-      <c r="D141" s="28" t="s">
+      <c r="D141" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E141" s="23" t="s">
@@ -8754,10 +8772,10 @@
       <c r="J141" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L141" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M141" s="23" t="s">
+      <c r="L141" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M141" s="4" t="s">
         <v>699</v>
       </c>
       <c r="N141" s="5" t="s">
@@ -8774,7 +8792,7 @@
       <c r="C142" s="5" t="s">
         <v>312</v>
       </c>
-      <c r="D142" s="28" t="s">
+      <c r="D142" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E142" s="23" t="s">
@@ -8789,10 +8807,10 @@
       <c r="J142" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L142" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M142" s="23" t="s">
+      <c r="L142" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M142" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N142" s="5" t="s">
@@ -8809,7 +8827,7 @@
       <c r="C143" s="5" t="s">
         <v>313</v>
       </c>
-      <c r="D143" s="28" t="s">
+      <c r="D143" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E143" s="23" t="s">
@@ -8824,10 +8842,10 @@
       <c r="J143" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L143" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M143" s="23" t="s">
+      <c r="L143" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M143" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N143" s="5" t="s">
@@ -8844,7 +8862,7 @@
       <c r="C144" s="5" t="s">
         <v>314</v>
       </c>
-      <c r="D144" s="28" t="s">
+      <c r="D144" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E144" s="23" t="s">
@@ -8859,10 +8877,10 @@
       <c r="J144" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L144" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M144" s="23" t="s">
+      <c r="L144" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M144" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N144" s="5" t="s">
@@ -8879,7 +8897,7 @@
       <c r="C145" s="5" t="s">
         <v>315</v>
       </c>
-      <c r="D145" s="28" t="s">
+      <c r="D145" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E145" s="23" t="s">
@@ -8894,10 +8912,10 @@
       <c r="J145" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L145" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M145" s="23" t="s">
+      <c r="L145" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M145" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N145" s="5" t="s">
@@ -8914,7 +8932,7 @@
       <c r="C146" s="5" t="s">
         <v>316</v>
       </c>
-      <c r="D146" s="28" t="s">
+      <c r="D146" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E146" s="23" t="s">
@@ -8929,10 +8947,10 @@
       <c r="J146" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L146" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M146" s="23" t="s">
+      <c r="L146" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M146" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N146" s="5" t="s">
@@ -8949,7 +8967,7 @@
       <c r="C147" s="5" t="s">
         <v>317</v>
       </c>
-      <c r="D147" s="28" t="s">
+      <c r="D147" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E147" s="23" t="s">
@@ -8964,10 +8982,10 @@
       <c r="J147" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L147" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M147" s="23" t="s">
+      <c r="L147" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M147" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N147" s="5" t="s">
@@ -8984,7 +9002,7 @@
       <c r="C148" s="5" t="s">
         <v>337</v>
       </c>
-      <c r="D148" s="28" t="s">
+      <c r="D148" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E148" s="23" t="s">
@@ -8999,10 +9017,10 @@
       <c r="J148" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L148" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M148" s="23" t="s">
+      <c r="L148" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M148" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N148" s="7" t="s">
@@ -9019,7 +9037,7 @@
       <c r="C149" s="5" t="s">
         <v>338</v>
       </c>
-      <c r="D149" s="28" t="s">
+      <c r="D149" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E149" s="23" t="s">
@@ -9034,10 +9052,10 @@
       <c r="J149" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L149" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M149" s="23" t="s">
+      <c r="L149" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M149" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N149" s="7" t="s">
@@ -9054,7 +9072,7 @@
       <c r="C150" s="5" t="s">
         <v>339</v>
       </c>
-      <c r="D150" s="28" t="s">
+      <c r="D150" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E150" s="23" t="s">
@@ -9069,10 +9087,10 @@
       <c r="J150" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L150" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M150" s="23" t="s">
+      <c r="L150" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M150" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N150" s="7" t="s">
@@ -9089,7 +9107,7 @@
       <c r="C151" s="5" t="s">
         <v>343</v>
       </c>
-      <c r="D151" s="28" t="s">
+      <c r="D151" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E151" s="23" t="s">
@@ -9104,10 +9122,10 @@
       <c r="J151" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L151" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M151" s="23" t="s">
+      <c r="L151" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M151" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N151" s="7" t="s">
@@ -9124,7 +9142,7 @@
       <c r="C152" s="5" t="s">
         <v>344</v>
       </c>
-      <c r="D152" s="28" t="s">
+      <c r="D152" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E152" s="23" t="s">
@@ -9139,10 +9157,10 @@
       <c r="J152" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L152" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M152" s="23" t="s">
+      <c r="L152" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M152" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N152" s="7" t="s">
@@ -9159,7 +9177,7 @@
       <c r="C153" s="5" t="s">
         <v>345</v>
       </c>
-      <c r="D153" s="28" t="s">
+      <c r="D153" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E153" s="23" t="s">
@@ -9174,10 +9192,10 @@
       <c r="J153" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L153" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M153" s="23" t="s">
+      <c r="L153" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M153" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N153" s="7" t="s">
@@ -9194,7 +9212,7 @@
       <c r="C154" s="5" t="s">
         <v>351</v>
       </c>
-      <c r="D154" s="28" t="s">
+      <c r="D154" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E154" s="23" t="s">
@@ -9209,10 +9227,10 @@
       <c r="J154" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L154" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M154" s="23" t="s">
+      <c r="L154" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M154" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N154" s="5" t="s">
@@ -9229,7 +9247,7 @@
       <c r="C155" s="5" t="s">
         <v>356</v>
       </c>
-      <c r="D155" s="28" t="s">
+      <c r="D155" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E155" s="23" t="s">
@@ -9244,10 +9262,10 @@
       <c r="J155" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L155" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M155" s="23" t="s">
+      <c r="L155" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M155" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N155" s="5" t="s">
@@ -9264,7 +9282,7 @@
       <c r="C156" s="5" t="s">
         <v>357</v>
       </c>
-      <c r="D156" s="28" t="s">
+      <c r="D156" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E156" s="23" t="s">
@@ -9279,10 +9297,10 @@
       <c r="J156" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L156" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M156" s="23" t="s">
+      <c r="L156" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M156" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N156" s="5" t="s">
@@ -9299,7 +9317,7 @@
       <c r="C157" s="5" t="s">
         <v>361</v>
       </c>
-      <c r="D157" s="28" t="s">
+      <c r="D157" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E157" s="23" t="s">
@@ -9317,10 +9335,10 @@
       <c r="K157" s="23">
         <v>1</v>
       </c>
-      <c r="L157" s="23" t="s">
+      <c r="L157" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M157" s="23" t="s">
+      <c r="M157" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N157" s="5" t="s">
@@ -9337,7 +9355,7 @@
       <c r="C158" s="5" t="s">
         <v>362</v>
       </c>
-      <c r="D158" s="28" t="s">
+      <c r="D158" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E158" s="23" t="s">
@@ -9355,10 +9373,10 @@
       <c r="K158" s="23">
         <v>1</v>
       </c>
-      <c r="L158" s="23" t="s">
+      <c r="L158" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M158" s="23" t="s">
+      <c r="M158" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N158" s="5" t="s">
@@ -9375,7 +9393,7 @@
       <c r="C159" s="5" t="s">
         <v>363</v>
       </c>
-      <c r="D159" s="28" t="s">
+      <c r="D159" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E159" s="23" t="s">
@@ -9393,10 +9411,10 @@
       <c r="K159" s="23">
         <v>1</v>
       </c>
-      <c r="L159" s="23" t="s">
+      <c r="L159" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M159" s="23" t="s">
+      <c r="M159" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N159" s="5" t="s">
@@ -9413,7 +9431,7 @@
       <c r="C160" s="5" t="s">
         <v>364</v>
       </c>
-      <c r="D160" s="28" t="s">
+      <c r="D160" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E160" s="23" t="s">
@@ -9431,10 +9449,10 @@
       <c r="K160" s="23">
         <v>1</v>
       </c>
-      <c r="L160" s="23" t="s">
+      <c r="L160" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M160" s="23" t="s">
+      <c r="M160" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N160" s="5" t="s">
@@ -9451,7 +9469,7 @@
       <c r="C161" s="5" t="s">
         <v>365</v>
       </c>
-      <c r="D161" s="28" t="s">
+      <c r="D161" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E161" s="23" t="s">
@@ -9469,10 +9487,10 @@
       <c r="K161" s="23">
         <v>1</v>
       </c>
-      <c r="L161" s="23" t="s">
+      <c r="L161" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M161" s="23" t="s">
+      <c r="M161" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N161" s="5" t="s">
@@ -9489,7 +9507,7 @@
       <c r="C162" s="5" t="s">
         <v>366</v>
       </c>
-      <c r="D162" s="28" t="s">
+      <c r="D162" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E162" s="23" t="s">
@@ -9507,10 +9525,10 @@
       <c r="K162" s="23">
         <v>1</v>
       </c>
-      <c r="L162" s="23" t="s">
+      <c r="L162" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M162" s="23" t="s">
+      <c r="M162" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N162" s="5" t="s">
@@ -9527,7 +9545,7 @@
       <c r="C163" s="5" t="s">
         <v>623</v>
       </c>
-      <c r="D163" s="28" t="s">
+      <c r="D163" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E163" s="23" t="s">
@@ -9545,10 +9563,10 @@
       <c r="K163" s="23">
         <v>1</v>
       </c>
-      <c r="L163" s="23" t="s">
+      <c r="L163" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M163" s="23" t="s">
+      <c r="M163" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N163" s="5" t="s">
@@ -9565,7 +9583,7 @@
       <c r="C164" s="5" t="s">
         <v>624</v>
       </c>
-      <c r="D164" s="28" t="s">
+      <c r="D164" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E164" s="23" t="s">
@@ -9583,10 +9601,10 @@
       <c r="K164" s="23">
         <v>1</v>
       </c>
-      <c r="L164" s="23" t="s">
+      <c r="L164" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M164" s="23" t="s">
+      <c r="M164" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N164" s="5" t="s">
@@ -9603,7 +9621,7 @@
       <c r="C165" s="5" t="s">
         <v>625</v>
       </c>
-      <c r="D165" s="28" t="s">
+      <c r="D165" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E165" s="23" t="s">
@@ -9621,10 +9639,10 @@
       <c r="K165" s="23">
         <v>1</v>
       </c>
-      <c r="L165" s="23" t="s">
+      <c r="L165" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M165" s="23" t="s">
+      <c r="M165" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N165" s="5" t="s">
@@ -9641,7 +9659,7 @@
       <c r="C166" s="5" t="s">
         <v>367</v>
       </c>
-      <c r="D166" s="28" t="s">
+      <c r="D166" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E166" s="23" t="s">
@@ -9659,10 +9677,10 @@
       <c r="K166" s="23">
         <v>1</v>
       </c>
-      <c r="L166" s="23" t="s">
+      <c r="L166" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M166" s="23" t="s">
+      <c r="M166" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N166" s="5" t="s">
@@ -9679,7 +9697,7 @@
       <c r="C167" s="5" t="s">
         <v>626</v>
       </c>
-      <c r="D167" s="28" t="s">
+      <c r="D167" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E167" s="23" t="s">
@@ -9697,10 +9715,10 @@
       <c r="K167" s="23">
         <v>1</v>
       </c>
-      <c r="L167" s="23" t="s">
+      <c r="L167" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M167" s="23" t="s">
+      <c r="M167" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N167" s="5" t="s">
@@ -9717,7 +9735,7 @@
       <c r="C168" s="5" t="s">
         <v>368</v>
       </c>
-      <c r="D168" s="28" t="s">
+      <c r="D168" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E168" s="23" t="s">
@@ -9735,10 +9753,10 @@
       <c r="K168" s="23">
         <v>1</v>
       </c>
-      <c r="L168" s="23" t="s">
+      <c r="L168" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M168" s="23" t="s">
+      <c r="M168" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N168" s="5" t="s">
@@ -9755,7 +9773,7 @@
       <c r="C169" s="5" t="s">
         <v>539</v>
       </c>
-      <c r="D169" s="28" t="s">
+      <c r="D169" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E169" s="23" t="s">
@@ -9773,10 +9791,10 @@
       <c r="K169" s="23">
         <v>1</v>
       </c>
-      <c r="L169" s="23" t="s">
+      <c r="L169" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M169" s="23" t="s">
+      <c r="M169" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N169" s="5" t="s">
@@ -9793,7 +9811,7 @@
       <c r="C170" s="5" t="s">
         <v>369</v>
       </c>
-      <c r="D170" s="28" t="s">
+      <c r="D170" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E170" s="23" t="s">
@@ -9811,10 +9829,10 @@
       <c r="K170" s="23">
         <v>1</v>
       </c>
-      <c r="L170" s="23" t="s">
+      <c r="L170" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M170" s="23" t="s">
+      <c r="M170" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N170" s="5" t="s">
@@ -9831,7 +9849,7 @@
       <c r="C171" s="5" t="s">
         <v>627</v>
       </c>
-      <c r="D171" s="28" t="s">
+      <c r="D171" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E171" s="23" t="s">
@@ -9849,10 +9867,10 @@
       <c r="K171" s="23">
         <v>1</v>
       </c>
-      <c r="L171" s="23" t="s">
+      <c r="L171" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M171" s="23" t="s">
+      <c r="M171" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N171" s="5" t="s">
@@ -9869,7 +9887,7 @@
       <c r="C172" s="5" t="s">
         <v>370</v>
       </c>
-      <c r="D172" s="28" t="s">
+      <c r="D172" s="27" t="s">
         <v>280</v>
       </c>
       <c r="E172" s="23" t="s">
@@ -9887,55 +9905,55 @@
       <c r="K172" s="23">
         <v>1</v>
       </c>
-      <c r="L172" s="23" t="s">
+      <c r="L172" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M172" s="23" t="s">
+      <c r="M172" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N172" s="5" t="s">
         <v>396</v>
       </c>
     </row>
-    <row r="173" spans="1:14" s="36" customFormat="1" ht="80" x14ac:dyDescent="0.2">
-      <c r="A173" s="36" t="s">
+    <row r="173" spans="1:14" s="35" customFormat="1" ht="80" x14ac:dyDescent="0.2">
+      <c r="A173" s="35" t="s">
         <v>540</v>
       </c>
-      <c r="B173" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C173" s="36" t="s">
+      <c r="B173" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C173" s="35" t="s">
         <v>538</v>
       </c>
-      <c r="D173" s="37" t="s">
+      <c r="D173" s="36" t="s">
         <v>280</v>
       </c>
-      <c r="E173" s="33" t="s">
+      <c r="E173" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F173" s="38" t="s">
+      <c r="F173" s="37" t="s">
         <v>504</v>
       </c>
-      <c r="G173" s="35"/>
-      <c r="H173" s="36" t="s">
+      <c r="G173" s="34"/>
+      <c r="H173" s="35" t="s">
         <v>549</v>
       </c>
-      <c r="I173" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J173" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K173" s="33">
-        <v>1</v>
-      </c>
-      <c r="L173" s="33" t="s">
+      <c r="I173" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J173" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K173" s="32">
+        <v>1</v>
+      </c>
+      <c r="L173" s="30" t="s">
         <v>110</v>
       </c>
-      <c r="M173" s="33" t="s">
+      <c r="M173" s="30" t="s">
         <v>687</v>
       </c>
-      <c r="N173" s="36" t="s">
+      <c r="N173" s="35" t="s">
         <v>397</v>
       </c>
     </row>
@@ -9949,7 +9967,7 @@
       <c r="C174" s="5" t="s">
         <v>537</v>
       </c>
-      <c r="D174" s="28" t="s">
+      <c r="D174" s="27" t="s">
         <v>504</v>
       </c>
       <c r="E174" s="23" t="s">
@@ -9967,10 +9985,10 @@
       <c r="K174" s="23">
         <v>1</v>
       </c>
-      <c r="L174" s="23" t="s">
+      <c r="L174" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M174" s="23" t="s">
+      <c r="M174" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N174" s="5" t="s">
@@ -9987,7 +10005,7 @@
       <c r="C175" s="5" t="s">
         <v>414</v>
       </c>
-      <c r="D175" s="28" t="s">
+      <c r="D175" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E175" s="23" t="s">
@@ -10002,10 +10020,10 @@
       <c r="J175" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L175" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M175" s="23" t="s">
+      <c r="L175" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M175" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N175" s="7" t="s">
@@ -10022,7 +10040,7 @@
       <c r="C176" s="5" t="s">
         <v>415</v>
       </c>
-      <c r="D176" s="28" t="s">
+      <c r="D176" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E176" s="23" t="s">
@@ -10037,10 +10055,10 @@
       <c r="J176" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L176" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M176" s="23" t="s">
+      <c r="L176" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M176" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N176" s="7" t="s">
@@ -10057,7 +10075,7 @@
       <c r="C177" s="5" t="s">
         <v>416</v>
       </c>
-      <c r="D177" s="28" t="s">
+      <c r="D177" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E177" s="23" t="s">
@@ -10072,10 +10090,10 @@
       <c r="J177" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L177" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M177" s="23" t="s">
+      <c r="L177" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M177" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N177" s="7" t="s">
@@ -10092,7 +10110,7 @@
       <c r="C178" s="5" t="s">
         <v>417</v>
       </c>
-      <c r="D178" s="28" t="s">
+      <c r="D178" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E178" s="23" t="s">
@@ -10107,10 +10125,10 @@
       <c r="J178" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L178" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M178" s="23" t="s">
+      <c r="L178" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M178" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N178" s="7" t="s">
@@ -10127,7 +10145,7 @@
       <c r="C179" s="5" t="s">
         <v>418</v>
       </c>
-      <c r="D179" s="28" t="s">
+      <c r="D179" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E179" s="23" t="s">
@@ -10142,10 +10160,10 @@
       <c r="J179" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L179" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M179" s="23" t="s">
+      <c r="L179" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M179" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N179" s="7" t="s">
@@ -10162,7 +10180,7 @@
       <c r="C180" s="5" t="s">
         <v>419</v>
       </c>
-      <c r="D180" s="28" t="s">
+      <c r="D180" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E180" s="23" t="s">
@@ -10177,10 +10195,10 @@
       <c r="J180" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L180" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M180" s="23" t="s">
+      <c r="L180" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M180" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N180" s="7" t="s">
@@ -10188,7 +10206,7 @@
       </c>
     </row>
     <row r="181" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A181" s="44" t="s">
+      <c r="A181" s="43" t="s">
         <v>457</v>
       </c>
       <c r="B181" s="16" t="s">
@@ -10197,7 +10215,7 @@
       <c r="C181" s="15" t="s">
         <v>422</v>
       </c>
-      <c r="D181" s="29" t="s">
+      <c r="D181" s="28" t="s">
         <v>413</v>
       </c>
       <c r="E181" s="24" t="s">
@@ -10219,10 +10237,10 @@
         <v>1</v>
       </c>
       <c r="K181" s="24"/>
-      <c r="L181" s="24" t="s">
+      <c r="L181" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="M181" s="24" t="s">
+      <c r="M181" s="16" t="s">
         <v>704</v>
       </c>
       <c r="N181" s="19" t="s">
@@ -10230,7 +10248,7 @@
       </c>
     </row>
     <row r="182" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A182" s="44" t="s">
+      <c r="A182" s="43" t="s">
         <v>458</v>
       </c>
       <c r="B182" s="16" t="s">
@@ -10239,7 +10257,7 @@
       <c r="C182" s="15" t="s">
         <v>425</v>
       </c>
-      <c r="D182" s="29" t="s">
+      <c r="D182" s="28" t="s">
         <v>413</v>
       </c>
       <c r="E182" s="24" t="s">
@@ -10261,10 +10279,10 @@
         <v>1</v>
       </c>
       <c r="K182" s="24"/>
-      <c r="L182" s="24" t="s">
+      <c r="L182" s="16" t="s">
         <v>424</v>
       </c>
-      <c r="M182" s="24" t="s">
+      <c r="M182" s="16" t="s">
         <v>704</v>
       </c>
       <c r="N182" s="19" t="s">
@@ -10281,7 +10299,7 @@
       <c r="C183" s="5" t="s">
         <v>426</v>
       </c>
-      <c r="D183" s="28" t="s">
+      <c r="D183" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E183" s="23" t="s">
@@ -10299,13 +10317,13 @@
       <c r="K183" s="23">
         <v>1</v>
       </c>
-      <c r="L183" s="23" t="s">
+      <c r="L183" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M183" s="23" t="s">
+      <c r="M183" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N183" s="43" t="s">
+      <c r="N183" s="42" t="s">
         <v>658</v>
       </c>
     </row>
@@ -10319,7 +10337,7 @@
       <c r="C184" s="5" t="s">
         <v>427</v>
       </c>
-      <c r="D184" s="28" t="s">
+      <c r="D184" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E184" s="23" t="s">
@@ -10337,10 +10355,10 @@
       <c r="K184" s="23">
         <v>1</v>
       </c>
-      <c r="L184" s="23" t="s">
+      <c r="L184" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M184" s="23" t="s">
+      <c r="M184" s="4" t="s">
         <v>430</v>
       </c>
       <c r="N184" s="14" t="s">
@@ -10357,7 +10375,7 @@
       <c r="C185" s="5" t="s">
         <v>428</v>
       </c>
-      <c r="D185" s="28" t="s">
+      <c r="D185" s="27" t="s">
         <v>413</v>
       </c>
       <c r="E185" s="23" t="s">
@@ -10375,10 +10393,10 @@
       <c r="K185" s="23">
         <v>1</v>
       </c>
-      <c r="L185" s="23" t="s">
+      <c r="L185" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M185" s="23" t="s">
+      <c r="M185" s="4" t="s">
         <v>430</v>
       </c>
       <c r="N185" s="14" t="s">
@@ -10395,7 +10413,7 @@
       <c r="C186" s="5" t="s">
         <v>434</v>
       </c>
-      <c r="D186" s="27" t="s">
+      <c r="D186" s="26" t="s">
         <v>435</v>
       </c>
       <c r="E186" s="23" t="s">
@@ -10410,10 +10428,10 @@
       <c r="J186" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L186" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M186" s="23" t="s">
+      <c r="L186" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M186" s="4" t="s">
         <v>696</v>
       </c>
       <c r="N186" s="5" t="s">
@@ -10430,7 +10448,7 @@
       <c r="C187" s="5" t="s">
         <v>467</v>
       </c>
-      <c r="D187" s="27" t="s">
+      <c r="D187" s="26" t="s">
         <v>435</v>
       </c>
       <c r="E187" s="23" t="s">
@@ -10445,10 +10463,10 @@
       <c r="J187" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L187" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M187" s="23" t="s">
+      <c r="L187" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M187" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N187" s="5" t="s">
@@ -10456,7 +10474,7 @@
       </c>
     </row>
     <row r="188" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A188" s="44" t="s">
+      <c r="A188" s="43" t="s">
         <v>468</v>
       </c>
       <c r="B188" s="16" t="s">
@@ -10465,7 +10483,7 @@
       <c r="C188" s="15" t="s">
         <v>469</v>
       </c>
-      <c r="D188" s="29" t="s">
+      <c r="D188" s="28" t="s">
         <v>435</v>
       </c>
       <c r="E188" s="24" t="s">
@@ -10490,10 +10508,10 @@
       <c r="K188" s="24">
         <v>3</v>
       </c>
-      <c r="L188" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M188" s="24" t="s">
+      <c r="L188" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M188" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N188" s="19" t="s">
@@ -10510,7 +10528,7 @@
       <c r="C189" s="5" t="s">
         <v>470</v>
       </c>
-      <c r="D189" s="27" t="s">
+      <c r="D189" s="26" t="s">
         <v>475</v>
       </c>
       <c r="E189" s="23" t="s">
@@ -10528,10 +10546,10 @@
       <c r="K189" s="23">
         <v>3</v>
       </c>
-      <c r="L189" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M189" s="23" t="s">
+      <c r="L189" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M189" s="4" t="s">
         <v>701</v>
       </c>
       <c r="N189" s="5" t="s">
@@ -10548,7 +10566,7 @@
       <c r="C190" s="5" t="s">
         <v>473</v>
       </c>
-      <c r="D190" s="27" t="s">
+      <c r="D190" s="26" t="s">
         <v>475</v>
       </c>
       <c r="E190" s="23" t="s">
@@ -10566,10 +10584,10 @@
       <c r="K190" s="23">
         <v>3</v>
       </c>
-      <c r="L190" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M190" s="23" t="s">
+      <c r="L190" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M190" s="4" t="s">
         <v>701</v>
       </c>
       <c r="N190" s="5" t="s">
@@ -10586,7 +10604,7 @@
       <c r="C191" s="5" t="s">
         <v>474</v>
       </c>
-      <c r="D191" s="27" t="s">
+      <c r="D191" s="26" t="s">
         <v>475</v>
       </c>
       <c r="E191" s="23" t="s">
@@ -10604,10 +10622,10 @@
       <c r="K191" s="23">
         <v>3</v>
       </c>
-      <c r="L191" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M191" s="23" t="s">
+      <c r="L191" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M191" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N191" s="5" t="s">
@@ -10624,7 +10642,7 @@
       <c r="C192" s="5" t="s">
         <v>487</v>
       </c>
-      <c r="D192" s="28" t="s">
+      <c r="D192" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E192" s="23" t="s">
@@ -10639,10 +10657,10 @@
       <c r="J192" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L192" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M192" s="23" t="s">
+      <c r="L192" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M192" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N192" s="7" t="s">
@@ -10659,7 +10677,7 @@
       <c r="C193" s="5" t="s">
         <v>488</v>
       </c>
-      <c r="D193" s="28" t="s">
+      <c r="D193" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E193" s="23" t="s">
@@ -10674,10 +10692,10 @@
       <c r="J193" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L193" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M193" s="23" t="s">
+      <c r="L193" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M193" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N193" s="7" t="s">
@@ -10694,7 +10712,7 @@
       <c r="C194" s="5" t="s">
         <v>489</v>
       </c>
-      <c r="D194" s="28" t="s">
+      <c r="D194" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E194" s="23" t="s">
@@ -10709,10 +10727,10 @@
       <c r="J194" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L194" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M194" s="23" t="s">
+      <c r="L194" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M194" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N194" s="7" t="s">
@@ -10729,7 +10747,7 @@
       <c r="C195" s="5" t="s">
         <v>498</v>
       </c>
-      <c r="D195" s="28" t="s">
+      <c r="D195" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E195" s="23" t="s">
@@ -10744,10 +10762,10 @@
       <c r="J195" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L195" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M195" s="23" t="s">
+      <c r="L195" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M195" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N195" s="7" t="s">
@@ -10764,7 +10782,7 @@
       <c r="C196" s="5" t="s">
         <v>496</v>
       </c>
-      <c r="D196" s="28" t="s">
+      <c r="D196" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E196" s="23" t="s">
@@ -10779,10 +10797,10 @@
       <c r="J196" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L196" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M196" s="23" t="s">
+      <c r="L196" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M196" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N196" s="7" t="s">
@@ -10799,7 +10817,7 @@
       <c r="C197" s="5" t="s">
         <v>497</v>
       </c>
-      <c r="D197" s="28" t="s">
+      <c r="D197" s="27" t="s">
         <v>490</v>
       </c>
       <c r="E197" s="23" t="s">
@@ -10814,10 +10832,10 @@
       <c r="J197" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L197" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M197" s="23" t="s">
+      <c r="L197" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M197" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N197" s="7" t="s">
@@ -10825,7 +10843,7 @@
       </c>
     </row>
     <row r="198" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A198" s="44" t="s">
+      <c r="A198" s="43" t="s">
         <v>502</v>
       </c>
       <c r="B198" s="16" t="s">
@@ -10834,7 +10852,7 @@
       <c r="C198" s="15" t="s">
         <v>503</v>
       </c>
-      <c r="D198" s="29" t="s">
+      <c r="D198" s="28" t="s">
         <v>504</v>
       </c>
       <c r="E198" s="24" t="s">
@@ -10859,10 +10877,10 @@
       <c r="K198" s="24">
         <v>3</v>
       </c>
-      <c r="L198" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M198" s="24" t="s">
+      <c r="L198" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M198" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N198" s="19" t="s">
@@ -10879,7 +10897,7 @@
       <c r="C199" s="5" t="s">
         <v>508</v>
       </c>
-      <c r="D199" s="27" t="s">
+      <c r="D199" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E199" s="23" t="s">
@@ -10898,10 +10916,10 @@
       <c r="K199" s="23">
         <v>1</v>
       </c>
-      <c r="L199" s="23" t="s">
+      <c r="L199" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M199" s="23" t="s">
+      <c r="M199" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N199" s="5" t="s">
@@ -10918,7 +10936,7 @@
       <c r="C200" s="5" t="s">
         <v>509</v>
       </c>
-      <c r="D200" s="27" t="s">
+      <c r="D200" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E200" s="23" t="s">
@@ -10937,10 +10955,10 @@
       <c r="K200" s="23">
         <v>1</v>
       </c>
-      <c r="L200" s="23" t="s">
+      <c r="L200" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M200" s="23" t="s">
+      <c r="M200" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N200" s="5" t="s">
@@ -10957,7 +10975,7 @@
       <c r="C201" s="5" t="s">
         <v>513</v>
       </c>
-      <c r="D201" s="27" t="s">
+      <c r="D201" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E201" s="23" t="s">
@@ -10976,10 +10994,10 @@
       <c r="K201" s="23">
         <v>1</v>
       </c>
-      <c r="L201" s="23" t="s">
+      <c r="L201" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M201" s="23" t="s">
+      <c r="M201" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N201" s="5" t="s">
@@ -10996,7 +11014,7 @@
       <c r="C202" s="5" t="s">
         <v>514</v>
       </c>
-      <c r="D202" s="27" t="s">
+      <c r="D202" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E202" s="23" t="s">
@@ -11015,10 +11033,10 @@
       <c r="K202" s="23">
         <v>1</v>
       </c>
-      <c r="L202" s="23" t="s">
+      <c r="L202" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M202" s="23" t="s">
+      <c r="M202" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N202" s="5" t="s">
@@ -11035,7 +11053,7 @@
       <c r="C203" s="5" t="s">
         <v>518</v>
       </c>
-      <c r="D203" s="27" t="s">
+      <c r="D203" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E203" s="23" t="s">
@@ -11053,10 +11071,10 @@
       <c r="K203" s="23">
         <v>1</v>
       </c>
-      <c r="L203" s="23" t="s">
+      <c r="L203" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M203" s="23" t="s">
+      <c r="M203" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N203" s="5" t="s">
@@ -11073,7 +11091,7 @@
       <c r="C204" s="5" t="s">
         <v>519</v>
       </c>
-      <c r="D204" s="27" t="s">
+      <c r="D204" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E204" s="23" t="s">
@@ -11091,10 +11109,10 @@
       <c r="K204" s="23">
         <v>1</v>
       </c>
-      <c r="L204" s="23" t="s">
+      <c r="L204" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M204" s="23" t="s">
+      <c r="M204" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N204" s="5" t="s">
@@ -11111,7 +11129,7 @@
       <c r="C205" s="5" t="s">
         <v>523</v>
       </c>
-      <c r="D205" s="27" t="s">
+      <c r="D205" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E205" s="23" t="s">
@@ -11129,10 +11147,10 @@
       <c r="K205" s="23">
         <v>1</v>
       </c>
-      <c r="L205" s="23" t="s">
+      <c r="L205" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M205" s="23" t="s">
+      <c r="M205" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N205" s="5" t="s">
@@ -11149,7 +11167,7 @@
       <c r="C206" s="5" t="s">
         <v>524</v>
       </c>
-      <c r="D206" s="27" t="s">
+      <c r="D206" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E206" s="23" t="s">
@@ -11167,10 +11185,10 @@
       <c r="K206" s="23">
         <v>1</v>
       </c>
-      <c r="L206" s="23" t="s">
+      <c r="L206" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M206" s="23" t="s">
+      <c r="M206" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N206" s="5" t="s">
@@ -11187,7 +11205,7 @@
       <c r="C207" s="5" t="s">
         <v>528</v>
       </c>
-      <c r="D207" s="27" t="s">
+      <c r="D207" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E207" s="23" t="s">
@@ -11205,10 +11223,10 @@
       <c r="K207" s="23">
         <v>1</v>
       </c>
-      <c r="L207" s="23" t="s">
+      <c r="L207" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M207" s="23" t="s">
+      <c r="M207" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N207" s="5" t="s">
@@ -11225,7 +11243,7 @@
       <c r="C208" s="5" t="s">
         <v>529</v>
       </c>
-      <c r="D208" s="27" t="s">
+      <c r="D208" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E208" s="23" t="s">
@@ -11243,10 +11261,10 @@
       <c r="K208" s="23">
         <v>1</v>
       </c>
-      <c r="L208" s="23" t="s">
+      <c r="L208" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M208" s="23" t="s">
+      <c r="M208" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N208" s="5" t="s">
@@ -11263,7 +11281,7 @@
       <c r="C209" s="5" t="s">
         <v>533</v>
       </c>
-      <c r="D209" s="27" t="s">
+      <c r="D209" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E209" s="23" t="s">
@@ -11281,10 +11299,10 @@
       <c r="K209" s="23">
         <v>1</v>
       </c>
-      <c r="L209" s="23" t="s">
+      <c r="L209" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M209" s="23" t="s">
+      <c r="M209" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N209" s="5" t="s">
@@ -11301,7 +11319,7 @@
       <c r="C210" s="5" t="s">
         <v>534</v>
       </c>
-      <c r="D210" s="27" t="s">
+      <c r="D210" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E210" s="23" t="s">
@@ -11319,10 +11337,10 @@
       <c r="K210" s="23">
         <v>1</v>
       </c>
-      <c r="L210" s="23" t="s">
+      <c r="L210" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M210" s="23" t="s">
+      <c r="M210" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N210" s="5" t="s">
@@ -11339,7 +11357,7 @@
       <c r="C211" s="5" t="s">
         <v>541</v>
       </c>
-      <c r="D211" s="27" t="s">
+      <c r="D211" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E211" s="23" t="s">
@@ -11357,10 +11375,10 @@
       <c r="K211" s="23">
         <v>1</v>
       </c>
-      <c r="L211" s="23" t="s">
+      <c r="L211" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M211" s="23" t="s">
+      <c r="M211" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N211" s="5" t="s">
@@ -11377,7 +11395,7 @@
       <c r="C212" s="5" t="s">
         <v>546</v>
       </c>
-      <c r="D212" s="27" t="s">
+      <c r="D212" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E212" s="23" t="s">
@@ -11395,10 +11413,10 @@
       <c r="K212" s="23">
         <v>1</v>
       </c>
-      <c r="L212" s="23" t="s">
+      <c r="L212" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M212" s="23" t="s">
+      <c r="M212" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N212" s="5" t="s">
@@ -11415,7 +11433,7 @@
       <c r="C213" s="5" t="s">
         <v>547</v>
       </c>
-      <c r="D213" s="27" t="s">
+      <c r="D213" s="26" t="s">
         <v>504</v>
       </c>
       <c r="E213" s="23" t="s">
@@ -11433,10 +11451,10 @@
       <c r="K213" s="23">
         <v>1</v>
       </c>
-      <c r="L213" s="23" t="s">
+      <c r="L213" s="4" t="s">
         <v>110</v>
       </c>
-      <c r="M213" s="23" t="s">
+      <c r="M213" s="4" t="s">
         <v>687</v>
       </c>
       <c r="N213" s="5" t="s">
@@ -11453,7 +11471,7 @@
       <c r="C214" s="5" t="s">
         <v>568</v>
       </c>
-      <c r="D214" s="27" t="s">
+      <c r="D214" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E214" s="23" t="s">
@@ -11471,13 +11489,13 @@
       <c r="K214" s="23">
         <v>1</v>
       </c>
-      <c r="L214" s="23" t="s">
+      <c r="L214" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M214" s="23" t="s">
+      <c r="M214" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N214" s="42" t="s">
+      <c r="N214" s="41" t="s">
         <v>560</v>
       </c>
     </row>
@@ -11491,7 +11509,7 @@
       <c r="C215" s="5" t="s">
         <v>569</v>
       </c>
-      <c r="D215" s="27" t="s">
+      <c r="D215" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E215" s="23" t="s">
@@ -11509,13 +11527,13 @@
       <c r="K215" s="23">
         <v>1</v>
       </c>
-      <c r="L215" s="23" t="s">
+      <c r="L215" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M215" s="23" t="s">
+      <c r="M215" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N215" s="42" t="s">
+      <c r="N215" s="41" t="s">
         <v>561</v>
       </c>
     </row>
@@ -11529,7 +11547,7 @@
       <c r="C216" s="5" t="s">
         <v>570</v>
       </c>
-      <c r="D216" s="27" t="s">
+      <c r="D216" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E216" s="23" t="s">
@@ -11547,13 +11565,13 @@
       <c r="K216" s="23">
         <v>1</v>
       </c>
-      <c r="L216" s="23" t="s">
+      <c r="L216" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M216" s="23" t="s">
+      <c r="M216" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N216" s="42" t="s">
+      <c r="N216" s="41" t="s">
         <v>562</v>
       </c>
     </row>
@@ -11567,7 +11585,7 @@
       <c r="C217" s="5" t="s">
         <v>571</v>
       </c>
-      <c r="D217" s="27" t="s">
+      <c r="D217" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E217" s="23" t="s">
@@ -11585,13 +11603,13 @@
       <c r="K217" s="23">
         <v>1</v>
       </c>
-      <c r="L217" s="23" t="s">
+      <c r="L217" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M217" s="23" t="s">
+      <c r="M217" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N217" s="42" t="s">
+      <c r="N217" s="41" t="s">
         <v>563</v>
       </c>
     </row>
@@ -11605,7 +11623,7 @@
       <c r="C218" s="5" t="s">
         <v>572</v>
       </c>
-      <c r="D218" s="27" t="s">
+      <c r="D218" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E218" s="23" t="s">
@@ -11623,13 +11641,13 @@
       <c r="K218" s="23">
         <v>1</v>
       </c>
-      <c r="L218" s="23" t="s">
+      <c r="L218" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M218" s="23" t="s">
+      <c r="M218" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N218" s="42" t="s">
+      <c r="N218" s="41" t="s">
         <v>564</v>
       </c>
     </row>
@@ -11643,7 +11661,7 @@
       <c r="C219" s="5" t="s">
         <v>573</v>
       </c>
-      <c r="D219" s="27" t="s">
+      <c r="D219" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E219" s="23" t="s">
@@ -11661,13 +11679,13 @@
       <c r="K219" s="23">
         <v>1</v>
       </c>
-      <c r="L219" s="23" t="s">
+      <c r="L219" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="M219" s="23" t="s">
+      <c r="M219" s="4" t="s">
         <v>430</v>
       </c>
-      <c r="N219" s="42" t="s">
+      <c r="N219" s="41" t="s">
         <v>565</v>
       </c>
     </row>
@@ -11681,7 +11699,7 @@
       <c r="C220" s="1" t="s">
         <v>575</v>
       </c>
-      <c r="D220" s="27" t="s">
+      <c r="D220" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E220" s="23" t="s">
@@ -11696,10 +11714,10 @@
       <c r="J220" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L220" s="23" t="s">
+      <c r="L220" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M220" s="23" t="s">
+      <c r="M220" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N220" s="5" t="s">
@@ -11716,7 +11734,7 @@
       <c r="C221" s="5" t="s">
         <v>582</v>
       </c>
-      <c r="D221" s="27" t="s">
+      <c r="D221" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E221" s="23" t="s">
@@ -11731,10 +11749,10 @@
       <c r="J221" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L221" s="23" t="s">
+      <c r="L221" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="M221" s="23" t="s">
+      <c r="M221" s="4" t="s">
         <v>704</v>
       </c>
       <c r="N221" s="5" t="s">
@@ -11751,7 +11769,7 @@
       <c r="C222" s="5" t="s">
         <v>583</v>
       </c>
-      <c r="D222" s="27" t="s">
+      <c r="D222" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E222" s="23" t="s">
@@ -11766,10 +11784,10 @@
       <c r="J222" s="5" t="b">
         <v>1</v>
       </c>
-      <c r="L222" s="23" t="s">
+      <c r="L222" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="M222" s="23" t="s">
+      <c r="M222" s="4" t="s">
         <v>704</v>
       </c>
       <c r="N222" s="5" t="s">
@@ -11786,7 +11804,7 @@
       <c r="C223" s="5" t="s">
         <v>587</v>
       </c>
-      <c r="D223" s="27" t="s">
+      <c r="D223" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E223" s="23" t="s">
@@ -11804,10 +11822,10 @@
       <c r="K223" s="23">
         <v>3</v>
       </c>
-      <c r="L223" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M223" s="23" t="s">
+      <c r="L223" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M223" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N223" s="5" t="s">
@@ -11824,7 +11842,7 @@
       <c r="C224" s="5" t="s">
         <v>591</v>
       </c>
-      <c r="D224" s="27" t="s">
+      <c r="D224" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E224" s="23" t="s">
@@ -11842,10 +11860,10 @@
       <c r="K224" s="23">
         <v>3</v>
       </c>
-      <c r="L224" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M224" s="23" t="s">
+      <c r="L224" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M224" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N224" s="5" t="s">
@@ -11853,7 +11871,7 @@
       </c>
     </row>
     <row r="225" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A225" s="44" t="s">
+      <c r="A225" s="43" t="s">
         <v>593</v>
       </c>
       <c r="B225" s="16" t="s">
@@ -11862,7 +11880,7 @@
       <c r="C225" s="15" t="s">
         <v>592</v>
       </c>
-      <c r="D225" s="29" t="s">
+      <c r="D225" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E225" s="24" t="s">
@@ -11886,10 +11904,10 @@
       <c r="K225" s="24">
         <v>3</v>
       </c>
-      <c r="L225" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M225" s="24" t="s">
+      <c r="L225" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M225" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N225" s="15" t="s">
@@ -11906,7 +11924,7 @@
       <c r="C226" s="5" t="s">
         <v>592</v>
       </c>
-      <c r="D226" s="27" t="s">
+      <c r="D226" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E226" s="23" t="s">
@@ -11924,10 +11942,10 @@
       <c r="K226" s="23">
         <v>3</v>
       </c>
-      <c r="L226" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M226" s="23" t="s">
+      <c r="L226" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M226" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N226" s="5" t="s">
@@ -11944,7 +11962,7 @@
       <c r="C227" s="5" t="s">
         <v>503</v>
       </c>
-      <c r="D227" s="27" t="s">
+      <c r="D227" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E227" s="23" t="s">
@@ -11962,10 +11980,10 @@
       <c r="K227" s="23">
         <v>3</v>
       </c>
-      <c r="L227" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M227" s="23" t="s">
+      <c r="L227" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M227" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N227" s="5" t="s">
@@ -11973,7 +11991,7 @@
       </c>
     </row>
     <row r="228" spans="1:14" s="15" customFormat="1" ht="32" x14ac:dyDescent="0.2">
-      <c r="A228" s="44" t="s">
+      <c r="A228" s="43" t="s">
         <v>594</v>
       </c>
       <c r="B228" s="16" t="s">
@@ -11982,7 +12000,7 @@
       <c r="C228" s="15" t="s">
         <v>595</v>
       </c>
-      <c r="D228" s="29" t="s">
+      <c r="D228" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E228" s="24" t="s">
@@ -12006,10 +12024,10 @@
       <c r="K228" s="24">
         <v>3</v>
       </c>
-      <c r="L228" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M228" s="24" t="s">
+      <c r="L228" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M228" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N228" s="15" t="s">
@@ -12026,7 +12044,7 @@
       <c r="C229" s="5" t="s">
         <v>595</v>
       </c>
-      <c r="D229" s="27" t="s">
+      <c r="D229" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E229" s="23" t="s">
@@ -12044,10 +12062,10 @@
       <c r="K229" s="23">
         <v>3</v>
       </c>
-      <c r="L229" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M229" s="23" t="s">
+      <c r="L229" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M229" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N229" s="5" t="s">
@@ -12064,13 +12082,13 @@
       <c r="C230" s="15" t="s">
         <v>597</v>
       </c>
-      <c r="D230" s="29" t="s">
+      <c r="D230" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E230" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="F230" s="45" t="s">
+      <c r="F230" s="44" t="s">
         <v>738</v>
       </c>
       <c r="G230" s="18">
@@ -12088,10 +12106,10 @@
       <c r="K230" s="24">
         <v>3</v>
       </c>
-      <c r="L230" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M230" s="24" t="s">
+      <c r="L230" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M230" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N230" s="15" t="s">
@@ -12108,13 +12126,13 @@
       <c r="C231" s="15" t="s">
         <v>599</v>
       </c>
-      <c r="D231" s="29" t="s">
+      <c r="D231" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E231" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="F231" s="45" t="s">
+      <c r="F231" s="44" t="s">
         <v>738</v>
       </c>
       <c r="G231" s="18">
@@ -12132,10 +12150,10 @@
       <c r="K231" s="24">
         <v>3</v>
       </c>
-      <c r="L231" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M231" s="24" t="s">
+      <c r="L231" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M231" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N231" s="15" t="s">
@@ -12152,13 +12170,13 @@
       <c r="C232" s="15" t="s">
         <v>601</v>
       </c>
-      <c r="D232" s="29" t="s">
+      <c r="D232" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E232" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="F232" s="45" t="s">
+      <c r="F232" s="44" t="s">
         <v>738</v>
       </c>
       <c r="G232" s="18">
@@ -12176,10 +12194,10 @@
       <c r="K232" s="24">
         <v>3</v>
       </c>
-      <c r="L232" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M232" s="24" t="s">
+      <c r="L232" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M232" s="16" t="s">
         <v>691</v>
       </c>
       <c r="N232" s="15" t="s">
@@ -12196,13 +12214,13 @@
       <c r="C233" s="15" t="s">
         <v>603</v>
       </c>
-      <c r="D233" s="29" t="s">
+      <c r="D233" s="28" t="s">
         <v>567</v>
       </c>
       <c r="E233" s="24" t="s">
         <v>480</v>
       </c>
-      <c r="F233" s="45" t="s">
+      <c r="F233" s="44" t="s">
         <v>738</v>
       </c>
       <c r="G233" s="18">
@@ -12220,10 +12238,10 @@
       <c r="K233" s="24">
         <v>3</v>
       </c>
-      <c r="L233" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="M233" s="24" t="s">
+      <c r="L233" s="16" t="s">
+        <v>111</v>
+      </c>
+      <c r="M233" s="16" t="s">
         <v>692</v>
       </c>
       <c r="N233" s="15" t="s">
@@ -12240,7 +12258,7 @@
       <c r="C234" s="5" t="s">
         <v>597</v>
       </c>
-      <c r="D234" s="27" t="s">
+      <c r="D234" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E234" s="23" t="s">
@@ -12258,10 +12276,10 @@
       <c r="K234" s="23">
         <v>3</v>
       </c>
-      <c r="L234" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M234" s="23" t="s">
+      <c r="L234" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M234" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N234" s="5" t="s">
@@ -12278,7 +12296,7 @@
       <c r="C235" s="5" t="s">
         <v>599</v>
       </c>
-      <c r="D235" s="27" t="s">
+      <c r="D235" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E235" s="23" t="s">
@@ -12296,10 +12314,10 @@
       <c r="K235" s="23">
         <v>3</v>
       </c>
-      <c r="L235" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M235" s="23" t="s">
+      <c r="L235" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M235" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N235" s="5" t="s">
@@ -12316,7 +12334,7 @@
       <c r="C236" s="5" t="s">
         <v>601</v>
       </c>
-      <c r="D236" s="27" t="s">
+      <c r="D236" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E236" s="23" t="s">
@@ -12334,10 +12352,10 @@
       <c r="K236" s="23">
         <v>3</v>
       </c>
-      <c r="L236" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M236" s="23" t="s">
+      <c r="L236" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M236" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N236" s="5" t="s">
@@ -12354,7 +12372,7 @@
       <c r="C237" s="5" t="s">
         <v>603</v>
       </c>
-      <c r="D237" s="27" t="s">
+      <c r="D237" s="26" t="s">
         <v>567</v>
       </c>
       <c r="E237" s="23" t="s">
@@ -12372,10 +12390,10 @@
       <c r="K237" s="23">
         <v>3</v>
       </c>
-      <c r="L237" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M237" s="23" t="s">
+      <c r="L237" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M237" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N237" s="5" t="s">
@@ -12392,7 +12410,7 @@
       <c r="C238" s="5" t="s">
         <v>614</v>
       </c>
-      <c r="D238" s="28" t="s">
+      <c r="D238" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E238" s="23" t="s">
@@ -12407,10 +12425,10 @@
       <c r="J238" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L238" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M238" s="23" t="s">
+      <c r="L238" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M238" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N238" s="7" t="s">
@@ -12427,7 +12445,7 @@
       <c r="C239" s="5" t="s">
         <v>615</v>
       </c>
-      <c r="D239" s="28" t="s">
+      <c r="D239" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E239" s="23" t="s">
@@ -12442,10 +12460,10 @@
       <c r="J239" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L239" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M239" s="23" t="s">
+      <c r="L239" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M239" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N239" s="7" t="s">
@@ -12462,7 +12480,7 @@
       <c r="C240" s="5" t="s">
         <v>616</v>
       </c>
-      <c r="D240" s="28" t="s">
+      <c r="D240" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E240" s="23" t="s">
@@ -12477,10 +12495,10 @@
       <c r="J240" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L240" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M240" s="23" t="s">
+      <c r="L240" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M240" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N240" s="7" t="s">
@@ -12497,7 +12515,7 @@
       <c r="C241" s="5" t="s">
         <v>628</v>
       </c>
-      <c r="D241" s="28" t="s">
+      <c r="D241" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E241" s="23" t="s">
@@ -12512,10 +12530,10 @@
       <c r="J241" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L241" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M241" s="23" t="s">
+      <c r="L241" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M241" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N241" s="7" t="s">
@@ -12532,7 +12550,7 @@
       <c r="C242" s="5" t="s">
         <v>622</v>
       </c>
-      <c r="D242" s="28" t="s">
+      <c r="D242" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E242" s="23" t="s">
@@ -12547,10 +12565,10 @@
       <c r="J242" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L242" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M242" s="23" t="s">
+      <c r="L242" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M242" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N242" s="7" t="s">
@@ -12567,7 +12585,7 @@
       <c r="C243" s="5" t="s">
         <v>613</v>
       </c>
-      <c r="D243" s="28" t="s">
+      <c r="D243" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E243" s="23" t="s">
@@ -12582,10 +12600,10 @@
       <c r="J243" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L243" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M243" s="23" t="s">
+      <c r="L243" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M243" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N243" s="7" t="s">
@@ -12602,7 +12620,7 @@
       <c r="C244" s="5" t="s">
         <v>617</v>
       </c>
-      <c r="D244" s="28" t="s">
+      <c r="D244" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E244" s="23" t="s">
@@ -12620,10 +12638,10 @@
       <c r="K244" s="23">
         <v>3</v>
       </c>
-      <c r="L244" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M244" s="23" t="s">
+      <c r="L244" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M244" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N244" s="5" t="s">
@@ -12640,7 +12658,7 @@
       <c r="C245" s="5" t="s">
         <v>618</v>
       </c>
-      <c r="D245" s="28" t="s">
+      <c r="D245" s="27" t="s">
         <v>605</v>
       </c>
       <c r="E245" s="23" t="s">
@@ -12658,10 +12676,10 @@
       <c r="K245" s="23">
         <v>3</v>
       </c>
-      <c r="L245" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M245" s="23" t="s">
+      <c r="L245" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M245" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N245" s="5" t="s">
@@ -12678,7 +12696,7 @@
       <c r="C246" s="1" t="s">
         <v>635</v>
       </c>
-      <c r="D246" s="28" t="s">
+      <c r="D246" s="27" t="s">
         <v>629</v>
       </c>
       <c r="E246" s="23" t="s">
@@ -12696,10 +12714,10 @@
       <c r="K246" s="23">
         <v>3</v>
       </c>
-      <c r="L246" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M246" s="23" t="s">
+      <c r="L246" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M246" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N246" s="5" t="s">
@@ -12716,7 +12734,7 @@
       <c r="C247" s="1" t="s">
         <v>636</v>
       </c>
-      <c r="D247" s="28" t="s">
+      <c r="D247" s="27" t="s">
         <v>629</v>
       </c>
       <c r="E247" s="23" t="s">
@@ -12734,10 +12752,10 @@
       <c r="K247" s="23">
         <v>3</v>
       </c>
-      <c r="L247" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M247" s="23" t="s">
+      <c r="L247" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M247" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N247" s="5" t="s">
@@ -12754,7 +12772,7 @@
       <c r="C248" s="1" t="s">
         <v>637</v>
       </c>
-      <c r="D248" s="28" t="s">
+      <c r="D248" s="27" t="s">
         <v>629</v>
       </c>
       <c r="E248" s="23" t="s">
@@ -12772,10 +12790,10 @@
       <c r="K248" s="23">
         <v>3</v>
       </c>
-      <c r="L248" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M248" s="23" t="s">
+      <c r="L248" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M248" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N248" s="5" t="s">
@@ -12792,7 +12810,7 @@
       <c r="C249" s="1" t="s">
         <v>638</v>
       </c>
-      <c r="D249" s="28" t="s">
+      <c r="D249" s="27" t="s">
         <v>629</v>
       </c>
       <c r="E249" s="23" t="s">
@@ -12810,189 +12828,189 @@
       <c r="K249" s="23">
         <v>3</v>
       </c>
-      <c r="L249" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M249" s="23" t="s">
+      <c r="L249" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M249" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N249" s="5" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="250" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A250" s="36" t="s">
+    <row r="250" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A250" s="35" t="s">
         <v>631</v>
       </c>
-      <c r="B250" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C250" s="36" t="s">
+      <c r="B250" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C250" s="35" t="s">
         <v>635</v>
       </c>
-      <c r="D250" s="37" t="s">
+      <c r="D250" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="E250" s="33" t="s">
+      <c r="E250" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F250" s="35">
+      <c r="F250" s="34">
         <v>45792</v>
       </c>
-      <c r="G250" s="35">
+      <c r="G250" s="34">
         <v>45909</v>
       </c>
-      <c r="H250" s="36" t="s">
+      <c r="H250" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="I250" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J250" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K250" s="33">
+      <c r="I250" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J250" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K250" s="32">
         <v>3</v>
       </c>
-      <c r="L250" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M250" s="33" t="s">
+      <c r="L250" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M250" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N250" s="36" t="s">
+      <c r="N250" s="35" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="251" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A251" s="36" t="s">
+    <row r="251" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A251" s="35" t="s">
         <v>632</v>
       </c>
-      <c r="B251" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C251" s="36" t="s">
+      <c r="B251" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C251" s="35" t="s">
         <v>636</v>
       </c>
-      <c r="D251" s="37" t="s">
+      <c r="D251" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="E251" s="33" t="s">
+      <c r="E251" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F251" s="35">
+      <c r="F251" s="34">
         <v>45792</v>
       </c>
-      <c r="G251" s="35">
+      <c r="G251" s="34">
         <v>45909</v>
       </c>
-      <c r="H251" s="36" t="s">
+      <c r="H251" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="I251" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J251" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K251" s="33">
+      <c r="I251" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J251" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K251" s="32">
         <v>3</v>
       </c>
-      <c r="L251" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M251" s="33" t="s">
+      <c r="L251" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M251" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N251" s="36" t="s">
+      <c r="N251" s="35" t="s">
         <v>589</v>
       </c>
     </row>
-    <row r="252" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A252" s="36" t="s">
+    <row r="252" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A252" s="35" t="s">
         <v>633</v>
       </c>
-      <c r="B252" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C252" s="36" t="s">
+      <c r="B252" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C252" s="35" t="s">
         <v>637</v>
       </c>
-      <c r="D252" s="37" t="s">
+      <c r="D252" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="E252" s="33" t="s">
+      <c r="E252" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F252" s="35">
+      <c r="F252" s="34">
         <v>45792</v>
       </c>
-      <c r="G252" s="35">
+      <c r="G252" s="34">
         <v>45909</v>
       </c>
-      <c r="H252" s="36" t="s">
+      <c r="H252" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="I252" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J252" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K252" s="33">
+      <c r="I252" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J252" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K252" s="32">
         <v>3</v>
       </c>
-      <c r="L252" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M252" s="33" t="s">
+      <c r="L252" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M252" s="30" t="s">
         <v>691</v>
       </c>
-      <c r="N252" s="36" t="s">
+      <c r="N252" s="35" t="s">
         <v>505</v>
       </c>
     </row>
-    <row r="253" spans="1:14" s="36" customFormat="1" ht="48" x14ac:dyDescent="0.2">
-      <c r="A253" s="36" t="s">
+    <row r="253" spans="1:14" s="35" customFormat="1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A253" s="35" t="s">
         <v>634</v>
       </c>
-      <c r="B253" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="C253" s="36" t="s">
+      <c r="B253" s="30" t="s">
+        <v>56</v>
+      </c>
+      <c r="C253" s="35" t="s">
         <v>638</v>
       </c>
-      <c r="D253" s="37" t="s">
+      <c r="D253" s="36" t="s">
         <v>629</v>
       </c>
-      <c r="E253" s="33" t="s">
+      <c r="E253" s="32" t="s">
         <v>349</v>
       </c>
-      <c r="F253" s="35">
+      <c r="F253" s="34">
         <v>45792</v>
       </c>
-      <c r="G253" s="35">
+      <c r="G253" s="34">
         <v>45909</v>
       </c>
-      <c r="H253" s="36" t="s">
+      <c r="H253" s="35" t="s">
         <v>838</v>
       </c>
-      <c r="I253" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="J253" s="36" t="b">
-        <v>1</v>
-      </c>
-      <c r="K253" s="33">
+      <c r="I253" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="J253" s="35" t="b">
+        <v>1</v>
+      </c>
+      <c r="K253" s="32">
         <v>3</v>
       </c>
-      <c r="L253" s="33" t="s">
-        <v>111</v>
-      </c>
-      <c r="M253" s="33" t="s">
+      <c r="L253" s="30" t="s">
+        <v>111</v>
+      </c>
+      <c r="M253" s="30" t="s">
         <v>692</v>
       </c>
-      <c r="N253" s="36" t="s">
+      <c r="N253" s="35" t="s">
         <v>505</v>
       </c>
     </row>
@@ -13006,7 +13024,7 @@
       <c r="C254" t="s">
         <v>645</v>
       </c>
-      <c r="D254" s="27" t="s">
+      <c r="D254" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E254" s="23" t="s">
@@ -13021,10 +13039,10 @@
       <c r="J254" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L254" s="23" t="s">
+      <c r="L254" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M254" s="23" t="s">
+      <c r="M254" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N254" s="5" t="s">
@@ -13041,7 +13059,7 @@
       <c r="C255" s="5" t="s">
         <v>655</v>
       </c>
-      <c r="D255" s="27" t="s">
+      <c r="D255" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E255" s="23" t="s">
@@ -13056,10 +13074,10 @@
       <c r="J255" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L255" s="23" t="s">
+      <c r="L255" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M255" s="23" t="s">
+      <c r="M255" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N255" s="5" t="s">
@@ -13076,7 +13094,7 @@
       <c r="C256" s="5" t="s">
         <v>648</v>
       </c>
-      <c r="D256" s="27" t="s">
+      <c r="D256" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E256" s="23" t="s">
@@ -13091,10 +13109,10 @@
       <c r="J256" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L256" s="23" t="s">
+      <c r="L256" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M256" s="23" t="s">
+      <c r="M256" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N256" s="5" t="s">
@@ -13111,7 +13129,7 @@
       <c r="C257" s="5" t="s">
         <v>656</v>
       </c>
-      <c r="D257" s="27" t="s">
+      <c r="D257" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E257" s="23" t="s">
@@ -13126,10 +13144,10 @@
       <c r="J257" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L257" s="23" t="s">
+      <c r="L257" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M257" s="23" t="s">
+      <c r="M257" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N257" s="5" t="s">
@@ -13146,7 +13164,7 @@
       <c r="C258" s="5" t="s">
         <v>651</v>
       </c>
-      <c r="D258" s="27" t="s">
+      <c r="D258" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E258" s="23" t="s">
@@ -13161,10 +13179,10 @@
       <c r="J258" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L258" s="23" t="s">
+      <c r="L258" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M258" s="23" t="s">
+      <c r="M258" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N258" s="5" t="s">
@@ -13181,7 +13199,7 @@
       <c r="C259" s="5" t="s">
         <v>657</v>
       </c>
-      <c r="D259" s="27" t="s">
+      <c r="D259" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E259" s="23" t="s">
@@ -13196,10 +13214,10 @@
       <c r="J259" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L259" s="23" t="s">
+      <c r="L259" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M259" s="23" t="s">
+      <c r="M259" s="4" t="s">
         <v>705</v>
       </c>
       <c r="N259" s="5" t="s">
@@ -13216,7 +13234,7 @@
       <c r="C260" s="5" t="s">
         <v>660</v>
       </c>
-      <c r="D260" s="27" t="s">
+      <c r="D260" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E260" s="23" t="s">
@@ -13231,10 +13249,10 @@
       <c r="J260" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L260" s="23" t="s">
+      <c r="L260" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M260" s="23" t="s">
+      <c r="M260" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N260" s="5" t="s">
@@ -13251,7 +13269,7 @@
       <c r="C261" s="5" t="s">
         <v>661</v>
       </c>
-      <c r="D261" s="27" t="s">
+      <c r="D261" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E261" s="23" t="s">
@@ -13266,10 +13284,10 @@
       <c r="J261" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L261" s="23" t="s">
+      <c r="L261" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M261" s="23" t="s">
+      <c r="M261" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N261" s="5" t="s">
@@ -13286,7 +13304,7 @@
       <c r="C262" s="5" t="s">
         <v>662</v>
       </c>
-      <c r="D262" s="27" t="s">
+      <c r="D262" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E262" s="23" t="s">
@@ -13301,10 +13319,10 @@
       <c r="J262" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L262" s="23" t="s">
+      <c r="L262" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M262" s="23" t="s">
+      <c r="M262" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N262" s="5" t="s">
@@ -13321,7 +13339,7 @@
       <c r="C263" s="5" t="s">
         <v>663</v>
       </c>
-      <c r="D263" s="27" t="s">
+      <c r="D263" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E263" s="23" t="s">
@@ -13336,10 +13354,10 @@
       <c r="J263" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L263" s="23" t="s">
+      <c r="L263" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M263" s="23" t="s">
+      <c r="M263" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N263" s="5" t="s">
@@ -13356,7 +13374,7 @@
       <c r="C264" s="5" t="s">
         <v>664</v>
       </c>
-      <c r="D264" s="27" t="s">
+      <c r="D264" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E264" s="23" t="s">
@@ -13371,10 +13389,10 @@
       <c r="J264" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L264" s="23" t="s">
+      <c r="L264" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M264" s="23" t="s">
+      <c r="M264" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N264" s="5" t="s">
@@ -13391,7 +13409,7 @@
       <c r="C265" s="5" t="s">
         <v>665</v>
       </c>
-      <c r="D265" s="27" t="s">
+      <c r="D265" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E265" s="23" t="s">
@@ -13406,10 +13424,10 @@
       <c r="J265" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L265" s="23" t="s">
+      <c r="L265" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M265" s="23" t="s">
+      <c r="M265" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N265" s="5" t="s">
@@ -13426,7 +13444,7 @@
       <c r="C266" s="5" t="s">
         <v>666</v>
       </c>
-      <c r="D266" s="27" t="s">
+      <c r="D266" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E266" s="23" t="s">
@@ -13441,10 +13459,10 @@
       <c r="J266" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L266" s="23" t="s">
+      <c r="L266" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M266" s="23" t="s">
+      <c r="M266" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N266" s="5" t="s">
@@ -13461,7 +13479,7 @@
       <c r="C267" s="5" t="s">
         <v>667</v>
       </c>
-      <c r="D267" s="27" t="s">
+      <c r="D267" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E267" s="23" t="s">
@@ -13476,10 +13494,10 @@
       <c r="J267" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L267" s="23" t="s">
+      <c r="L267" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M267" s="23" t="s">
+      <c r="M267" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N267" s="5" t="s">
@@ -13496,7 +13514,7 @@
       <c r="C268" s="5" t="s">
         <v>668</v>
       </c>
-      <c r="D268" s="27" t="s">
+      <c r="D268" s="26" t="s">
         <v>642</v>
       </c>
       <c r="E268" s="23" t="s">
@@ -13511,10 +13529,10 @@
       <c r="J268" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L268" s="23" t="s">
+      <c r="L268" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M268" s="23" t="s">
+      <c r="M268" s="4" t="s">
         <v>706</v>
       </c>
       <c r="N268" s="5" t="s">
@@ -13531,7 +13549,7 @@
       <c r="C269" s="5" t="s">
         <v>707</v>
       </c>
-      <c r="D269" s="27" t="s">
+      <c r="D269" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E269" s="23" t="s">
@@ -13550,10 +13568,10 @@
       <c r="K269" s="23">
         <v>3</v>
       </c>
-      <c r="L269" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M269" s="23" t="s">
+      <c r="L269" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M269" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N269" s="5" t="s">
@@ -13570,7 +13588,7 @@
       <c r="C270" s="5" t="s">
         <v>708</v>
       </c>
-      <c r="D270" s="27" t="s">
+      <c r="D270" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E270" s="23" t="s">
@@ -13589,10 +13607,10 @@
       <c r="K270" s="23">
         <v>3</v>
       </c>
-      <c r="L270" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M270" s="23" t="s">
+      <c r="L270" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M270" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N270" s="5" t="s">
@@ -13609,7 +13627,7 @@
       <c r="C271" s="5" t="s">
         <v>710</v>
       </c>
-      <c r="D271" s="27" t="s">
+      <c r="D271" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E271" s="23" t="s">
@@ -13624,10 +13642,10 @@
       <c r="J271" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L271" s="23" t="s">
+      <c r="L271" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M271" s="23" t="s">
+      <c r="M271" s="4" t="s">
         <v>714</v>
       </c>
       <c r="N271" s="5" t="s">
@@ -13644,7 +13662,7 @@
       <c r="C272" s="5" t="s">
         <v>715</v>
       </c>
-      <c r="D272" s="27" t="s">
+      <c r="D272" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E272" s="23" t="s">
@@ -13663,10 +13681,10 @@
       <c r="K272" s="23">
         <v>1</v>
       </c>
-      <c r="L272" s="23" t="s">
+      <c r="L272" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M272" s="23" t="s">
+      <c r="M272" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N272" s="5" t="s">
@@ -13683,7 +13701,7 @@
       <c r="C273" s="5" t="s">
         <v>719</v>
       </c>
-      <c r="D273" s="27" t="s">
+      <c r="D273" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E273" s="23" t="s">
@@ -13702,10 +13720,10 @@
       <c r="K273" s="23">
         <v>1</v>
       </c>
-      <c r="L273" s="23" t="s">
+      <c r="L273" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M273" s="23" t="s">
+      <c r="M273" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N273" s="5" t="s">
@@ -13722,7 +13740,7 @@
       <c r="C274" s="5" t="s">
         <v>720</v>
       </c>
-      <c r="D274" s="27" t="s">
+      <c r="D274" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E274" s="23" t="s">
@@ -13741,10 +13759,10 @@
       <c r="K274" s="23">
         <v>1</v>
       </c>
-      <c r="L274" s="23" t="s">
+      <c r="L274" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M274" s="23" t="s">
+      <c r="M274" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N274" s="5" t="s">
@@ -13761,7 +13779,7 @@
       <c r="C275" s="5" t="s">
         <v>729</v>
       </c>
-      <c r="D275" s="27" t="s">
+      <c r="D275" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E275" s="23" t="s">
@@ -13780,10 +13798,10 @@
       <c r="K275" s="23">
         <v>1</v>
       </c>
-      <c r="L275" s="23" t="s">
+      <c r="L275" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M275" s="23" t="s">
+      <c r="M275" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N275" s="5" t="s">
@@ -13800,7 +13818,7 @@
       <c r="C276" s="5" t="s">
         <v>725</v>
       </c>
-      <c r="D276" s="27" t="s">
+      <c r="D276" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E276" s="23" t="s">
@@ -13819,10 +13837,10 @@
       <c r="K276" s="23">
         <v>1</v>
       </c>
-      <c r="L276" s="23" t="s">
+      <c r="L276" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M276" s="23" t="s">
+      <c r="M276" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N276" s="5" t="s">
@@ -13839,7 +13857,7 @@
       <c r="C277" s="5" t="s">
         <v>726</v>
       </c>
-      <c r="D277" s="27" t="s">
+      <c r="D277" s="26" t="s">
         <v>709</v>
       </c>
       <c r="E277" s="23" t="s">
@@ -13858,10 +13876,10 @@
       <c r="K277" s="23">
         <v>1</v>
       </c>
-      <c r="L277" s="23" t="s">
+      <c r="L277" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M277" s="23" t="s">
+      <c r="M277" s="4" t="s">
         <v>698</v>
       </c>
       <c r="N277" s="5" t="s">
@@ -13878,7 +13896,7 @@
       <c r="C278" s="5" t="s">
         <v>736</v>
       </c>
-      <c r="D278" s="28" t="s">
+      <c r="D278" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E278" s="23" t="s">
@@ -13897,10 +13915,10 @@
       <c r="K278" s="23">
         <v>1</v>
       </c>
-      <c r="L278" s="23" t="s">
+      <c r="L278" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M278" s="23" t="s">
+      <c r="M278" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N278" s="5" t="s">
@@ -13917,7 +13935,7 @@
       <c r="C279" s="5" t="s">
         <v>737</v>
       </c>
-      <c r="D279" s="28" t="s">
+      <c r="D279" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E279" s="23" t="s">
@@ -13936,10 +13954,10 @@
       <c r="K279" s="23">
         <v>1</v>
       </c>
-      <c r="L279" s="23" t="s">
+      <c r="L279" s="4" t="s">
         <v>717</v>
       </c>
-      <c r="M279" s="23" t="s">
+      <c r="M279" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N279" s="5" t="s">
@@ -13956,7 +13974,7 @@
       <c r="C280" s="1" t="s">
         <v>744</v>
       </c>
-      <c r="D280" s="28" t="s">
+      <c r="D280" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E280" s="23" t="s">
@@ -13975,10 +13993,10 @@
       <c r="K280" s="23">
         <v>3</v>
       </c>
-      <c r="L280" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M280" s="23" t="s">
+      <c r="L280" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M280" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N280" s="5" t="s">
@@ -13995,7 +14013,7 @@
       <c r="C281" s="1" t="s">
         <v>745</v>
       </c>
-      <c r="D281" s="28" t="s">
+      <c r="D281" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E281" s="23" t="s">
@@ -14014,10 +14032,10 @@
       <c r="K281" s="23">
         <v>3</v>
       </c>
-      <c r="L281" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M281" s="23" t="s">
+      <c r="L281" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M281" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N281" s="5" t="s">
@@ -14034,7 +14052,7 @@
       <c r="C282" s="1" t="s">
         <v>746</v>
       </c>
-      <c r="D282" s="28" t="s">
+      <c r="D282" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E282" s="23" t="s">
@@ -14053,10 +14071,10 @@
       <c r="K282" s="23">
         <v>3</v>
       </c>
-      <c r="L282" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M282" s="23" t="s">
+      <c r="L282" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M282" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N282" s="5" t="s">
@@ -14073,7 +14091,7 @@
       <c r="C283" s="1" t="s">
         <v>747</v>
       </c>
-      <c r="D283" s="28" t="s">
+      <c r="D283" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E283" s="23" t="s">
@@ -14092,10 +14110,10 @@
       <c r="K283" s="23">
         <v>3</v>
       </c>
-      <c r="L283" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M283" s="23" t="s">
+      <c r="L283" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M283" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N283" s="5" t="s">
@@ -14112,7 +14130,7 @@
       <c r="C284" s="1" t="s">
         <v>821</v>
       </c>
-      <c r="D284" s="28" t="s">
+      <c r="D284" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E284" s="23" t="s">
@@ -14128,10 +14146,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L284" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M284" s="23" t="s">
+      <c r="L284" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M284" s="4" t="s">
         <v>823</v>
       </c>
       <c r="N284" s="5" t="s">
@@ -14148,7 +14166,7 @@
       <c r="C285" s="1" t="s">
         <v>822</v>
       </c>
-      <c r="D285" s="28" t="s">
+      <c r="D285" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E285" s="23" t="s">
@@ -14164,10 +14182,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L285" s="23" t="s">
-        <v>111</v>
-      </c>
-      <c r="M285" s="23" t="s">
+      <c r="L285" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M285" s="4" t="s">
         <v>823</v>
       </c>
       <c r="N285" s="5" t="s">
@@ -14184,7 +14202,7 @@
       <c r="C286" s="5" t="s">
         <v>777</v>
       </c>
-      <c r="D286" s="28" t="s">
+      <c r="D286" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E286" s="23" t="s">
@@ -14200,10 +14218,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L286" s="23" t="s">
+      <c r="L286" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M286" s="23" t="s">
+      <c r="M286" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N286" s="5" t="s">
@@ -14220,7 +14238,7 @@
       <c r="C287" s="5" t="s">
         <v>781</v>
       </c>
-      <c r="D287" s="28" t="s">
+      <c r="D287" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E287" s="23" t="s">
@@ -14236,10 +14254,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L287" s="23" t="s">
+      <c r="L287" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M287" s="23" t="s">
+      <c r="M287" s="4" t="s">
         <v>692</v>
       </c>
       <c r="N287" s="5" t="s">
@@ -14256,7 +14274,7 @@
       <c r="C288" s="5" t="s">
         <v>784</v>
       </c>
-      <c r="D288" s="28" t="s">
+      <c r="D288" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E288" s="23" t="s">
@@ -14272,10 +14290,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L288" s="23" t="s">
+      <c r="L288" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M288" s="23" t="s">
+      <c r="M288" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N288" s="5" t="s">
@@ -14292,7 +14310,7 @@
       <c r="C289" s="5" t="s">
         <v>787</v>
       </c>
-      <c r="D289" s="28" t="s">
+      <c r="D289" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E289" s="23" t="s">
@@ -14308,10 +14326,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L289" s="23" t="s">
+      <c r="L289" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M289" s="23" t="s">
+      <c r="M289" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N289" s="5" t="s">
@@ -14328,7 +14346,7 @@
       <c r="C290" s="5" t="s">
         <v>789</v>
       </c>
-      <c r="D290" s="28" t="s">
+      <c r="D290" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E290" s="23" t="s">
@@ -14344,10 +14362,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L290" s="23" t="s">
+      <c r="L290" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M290" s="23" t="s">
+      <c r="M290" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N290" s="5" t="s">
@@ -14364,7 +14382,7 @@
       <c r="C291" s="5" t="s">
         <v>791</v>
       </c>
-      <c r="D291" s="28" t="s">
+      <c r="D291" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E291" s="23" t="s">
@@ -14380,10 +14398,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L291" s="23" t="s">
+      <c r="L291" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M291" s="23" t="s">
+      <c r="M291" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N291" s="5" t="s">
@@ -14400,7 +14418,7 @@
       <c r="C292" s="5" t="s">
         <v>793</v>
       </c>
-      <c r="D292" s="28" t="s">
+      <c r="D292" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E292" s="23" t="s">
@@ -14416,10 +14434,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L292" s="23" t="s">
+      <c r="L292" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M292" s="23" t="s">
+      <c r="M292" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N292" s="5" t="s">
@@ -14436,7 +14454,7 @@
       <c r="C293" s="5" t="s">
         <v>798</v>
       </c>
-      <c r="D293" s="28" t="s">
+      <c r="D293" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E293" s="23" t="s">
@@ -14452,10 +14470,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L293" s="23" t="s">
+      <c r="L293" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M293" s="23" t="s">
+      <c r="M293" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N293" s="5" t="s">
@@ -14472,7 +14490,7 @@
       <c r="C294" s="5" t="s">
         <v>799</v>
       </c>
-      <c r="D294" s="28" t="s">
+      <c r="D294" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E294" s="23" t="s">
@@ -14488,10 +14506,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L294" s="23" t="s">
+      <c r="L294" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M294" s="23" t="s">
+      <c r="M294" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N294" s="5" t="s">
@@ -14508,7 +14526,7 @@
       <c r="C295" s="5" t="s">
         <v>800</v>
       </c>
-      <c r="D295" s="28" t="s">
+      <c r="D295" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E295" s="23" t="s">
@@ -14524,10 +14542,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L295" s="23" t="s">
+      <c r="L295" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M295" s="23" t="s">
+      <c r="M295" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N295" s="5" t="s">
@@ -14544,7 +14562,7 @@
       <c r="C296" s="5" t="s">
         <v>802</v>
       </c>
-      <c r="D296" s="28" t="s">
+      <c r="D296" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E296" s="23" t="s">
@@ -14560,10 +14578,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L296" s="23" t="s">
+      <c r="L296" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M296" s="23" t="s">
+      <c r="M296" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N296" s="5" t="s">
@@ -14580,7 +14598,7 @@
       <c r="C297" s="5" t="s">
         <v>803</v>
       </c>
-      <c r="D297" s="28" t="s">
+      <c r="D297" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E297" s="23" t="s">
@@ -14596,10 +14614,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L297" s="23" t="s">
+      <c r="L297" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M297" s="23" t="s">
+      <c r="M297" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N297" s="5" t="s">
@@ -14616,7 +14634,7 @@
       <c r="C298" s="5" t="s">
         <v>805</v>
       </c>
-      <c r="D298" s="28" t="s">
+      <c r="D298" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E298" s="23" t="s">
@@ -14632,10 +14650,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L298" s="23" t="s">
+      <c r="L298" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M298" s="23" t="s">
+      <c r="M298" s="4" t="s">
         <v>690</v>
       </c>
       <c r="N298" s="5" t="s">
@@ -14652,7 +14670,7 @@
       <c r="C299" s="5" t="s">
         <v>807</v>
       </c>
-      <c r="D299" s="28" t="s">
+      <c r="D299" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E299" s="23" t="s">
@@ -14668,10 +14686,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L299" s="23" t="s">
+      <c r="L299" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M299" s="23" t="s">
+      <c r="M299" s="4" t="s">
         <v>693</v>
       </c>
       <c r="N299" s="5" t="s">
@@ -14688,7 +14706,7 @@
       <c r="C300" s="5" t="s">
         <v>809</v>
       </c>
-      <c r="D300" s="28" t="s">
+      <c r="D300" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E300" s="23" t="s">
@@ -14704,10 +14722,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L300" s="23" t="s">
+      <c r="L300" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M300" s="23" t="s">
+      <c r="M300" s="4" t="s">
         <v>694</v>
       </c>
       <c r="N300" s="5" t="s">
@@ -14724,7 +14742,7 @@
       <c r="C301" s="5" t="s">
         <v>811</v>
       </c>
-      <c r="D301" s="28" t="s">
+      <c r="D301" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E301" s="23" t="s">
@@ -14740,10 +14758,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L301" s="23" t="s">
+      <c r="L301" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M301" s="23" t="s">
+      <c r="M301" s="4" t="s">
         <v>691</v>
       </c>
       <c r="N301" s="5" t="s">
@@ -14760,7 +14778,7 @@
       <c r="C302" s="5" t="s">
         <v>813</v>
       </c>
-      <c r="D302" s="28" t="s">
+      <c r="D302" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E302" s="23" t="s">
@@ -14776,10 +14794,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L302" s="23" t="s">
+      <c r="L302" s="4" t="s">
         <v>779</v>
       </c>
-      <c r="M302" s="23" t="s">
+      <c r="M302" s="4" t="s">
         <v>815</v>
       </c>
       <c r="N302" s="5" t="s">
@@ -14796,7 +14814,7 @@
       <c r="C303" s="5" t="s">
         <v>828</v>
       </c>
-      <c r="D303" s="28" t="s">
+      <c r="D303" s="27" t="s">
         <v>738</v>
       </c>
       <c r="E303" s="23" t="s">
@@ -14811,10 +14829,10 @@
       <c r="J303" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L303" s="23" t="s">
+      <c r="L303" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M303" s="23" t="s">
+      <c r="M303" s="4" t="s">
         <v>714</v>
       </c>
       <c r="N303" s="5" t="s">
@@ -14831,7 +14849,7 @@
       <c r="C304" s="5" t="s">
         <v>834</v>
       </c>
-      <c r="D304" s="28" t="s">
+      <c r="D304" s="27" t="s">
         <v>830</v>
       </c>
       <c r="E304" s="23" t="s">
@@ -14847,10 +14865,10 @@
         <f>TRUE</f>
         <v>1</v>
       </c>
-      <c r="L304" s="23" t="s">
+      <c r="L304" s="4" t="s">
         <v>424</v>
       </c>
-      <c r="M304" s="23" t="s">
+      <c r="M304" s="4" t="s">
         <v>836</v>
       </c>
       <c r="N304" s="5" t="s">
@@ -14867,7 +14885,7 @@
       <c r="C305" s="5" t="s">
         <v>842</v>
       </c>
-      <c r="D305" s="28" t="s">
+      <c r="D305" s="27" t="s">
         <v>830</v>
       </c>
       <c r="E305" s="23" t="s">
@@ -14882,14 +14900,92 @@
       <c r="J305" s="5" t="b">
         <v>0</v>
       </c>
-      <c r="L305" s="23" t="s">
+      <c r="L305" s="4" t="s">
         <v>578</v>
       </c>
-      <c r="M305" s="23" t="s">
+      <c r="M305" s="4" t="s">
         <v>840</v>
       </c>
       <c r="N305" s="5" t="s">
         <v>841</v>
+      </c>
+    </row>
+    <row r="306" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A306" t="s">
+        <v>844</v>
+      </c>
+      <c r="B306" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C306" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="D306" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="E306" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H306" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="I306" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J306" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K306" s="23">
+        <v>3</v>
+      </c>
+      <c r="L306" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M306" s="4" t="s">
+        <v>691</v>
+      </c>
+      <c r="N306" s="5" t="s">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="307" spans="1:14" ht="16" x14ac:dyDescent="0.2">
+      <c r="A307" t="s">
+        <v>845</v>
+      </c>
+      <c r="B307" s="5" t="s">
+        <v>586</v>
+      </c>
+      <c r="C307" s="1" t="s">
+        <v>846</v>
+      </c>
+      <c r="D307" s="27" t="s">
+        <v>848</v>
+      </c>
+      <c r="E307" s="23" t="s">
+        <v>350</v>
+      </c>
+      <c r="H307" s="5" t="s">
+        <v>849</v>
+      </c>
+      <c r="I307" s="5" t="b">
+        <v>0</v>
+      </c>
+      <c r="J307" s="5" t="b">
+        <f>TRUE</f>
+        <v>1</v>
+      </c>
+      <c r="K307" s="23">
+        <v>3</v>
+      </c>
+      <c r="L307" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="M307" s="4" t="s">
+        <v>692</v>
+      </c>
+      <c r="N307" s="5" t="s">
+        <v>589</v>
       </c>
     </row>
   </sheetData>

--- a/work-in-progress/Peppol Code Lists - Document types v9.3.xlsx
+++ b/work-in-progress/Peppol Code Lists - Document types v9.3.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/philip/dev/git-peppol/edec-codelists/work-in-progress/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ACA7B5C2-F9D0-7F40-ABD0-10BF4803A84C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{265E8316-9439-B645-9B62-BDEE865D4800}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="880" windowWidth="41120" windowHeight="24020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3333,8 +3333,8 @@
   <dimension ref="A1:N307"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A288" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A306" sqref="A306"/>
+      <pane ySplit="1" topLeftCell="A34" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A47" sqref="A47:A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -5235,7 +5235,7 @@
         <v>0</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>111</v>
+        <v>578</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>696</v>
@@ -5271,7 +5271,7 @@
         <v>0</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>111</v>
+        <v>578</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>697</v>
